--- a/F_dataset/DUD-E/CSF1R/CSF1R_preprocessing/CSF1R_valid.xlsx
+++ b/F_dataset/DUD-E/CSF1R/CSF1R_preprocessing/CSF1R_valid.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V52"/>
+  <dimension ref="A1:V48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -548,7 +548,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CHEMBL492809</t>
+          <t>CHEMBL452664</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -556,12 +556,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CONC(=O)c1cn(-c2ccc3c(c2)CCC3)c2nc(Nc3ccc(C4CCN(C)CC4)cc3)ncc2c1=O</t>
+          <t>COc1cc2ncc(C(N)=O)c(Nc3cccc(Cl)c3Cl)c2cc1NCCN(C)C</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>CONC(=O)c1cn(-c2ccc3c(c2)CCC3)c2nc(Nc3ccc(C4CCN(C)CC4)cc3)ncc2c1=O</t>
+          <t>COc1cc2ncc(C(N)=O)c(Nc3cccc(Cl)c3Cl)c2cc1NCCN(C)C</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -575,25 +575,25 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>524.63</v>
+        <v>448.35</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M2" t="n">
-        <v>101.38</v>
+        <v>92.51000000000001</v>
       </c>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
@@ -604,7 +604,7 @@
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F51282E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B864350&gt;</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
@@ -616,7 +616,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CHEMBL456008</t>
+          <t>CHEMBL1088598</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -624,12 +624,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Cc1cc(C(=O)Nc2cccc([C@H](C)Nc3cncc(Cl)n3)c2)ccn1</t>
+          <t>Nc1ncc(-c2ccc(C(=O)N3CCC[C@H]3CN3CCCC3)cc2)nc1NCc1c(Cl)cccc1Cl</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Cc1cc(C(=O)Nc2cccc([C@H](C)Nc3cncc(Cl)n3)c2)ccn1</t>
+          <t>Nc1ncc(-c2ccc(C(=O)N3CCC[C@H]3CN3CCCC3)cc2)nc1NCc1c(Cl)cccc1Cl</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -643,25 +643,25 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>367.84</v>
+        <v>525.48</v>
       </c>
       <c r="H3" t="n">
         <v>2</v>
       </c>
       <c r="I3" t="n">
+        <v>6</v>
+      </c>
+      <c r="J3" t="n">
+        <v>7</v>
+      </c>
+      <c r="K3" t="n">
         <v>5</v>
       </c>
-      <c r="J3" t="n">
-        <v>5</v>
-      </c>
-      <c r="K3" t="n">
-        <v>3</v>
-      </c>
       <c r="L3" t="n">
         <v>3</v>
       </c>
       <c r="M3" t="n">
-        <v>79.8</v>
+        <v>87.38</v>
       </c>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
@@ -672,7 +672,7 @@
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F515FA00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97C510&gt;</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
@@ -684,7 +684,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CHEMBL1088598</t>
+          <t>CHEMBL255213</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -692,12 +692,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Nc1ncc(-c2ccc(C(=O)N3CCC[C@H]3CN3CCCC3)cc2)nc1NCc1c(Cl)cccc1Cl</t>
+          <t>CCc1ccc(-c2c(-c3cc(C)no3)c(=O)[nH]c3ccc(Cl)cc23)cc1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Nc1ncc(-c2ccc(C(=O)N3CCC[C@H]3CN3CCCC3)cc2)nc1NCc1c(Cl)cccc1Cl</t>
+          <t>CCc1ccc(-c2c(-c3cc(C)no3)c(=O)[nH]c3ccc(Cl)cc23)cc1</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -711,25 +711,25 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>525.48</v>
+        <v>364.83</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J4" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M4" t="n">
-        <v>87.38</v>
+        <v>58.89</v>
       </c>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
@@ -740,7 +740,7 @@
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F515EFF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97D2A0&gt;</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
@@ -752,7 +752,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CHEMBL1087661</t>
+          <t>CHEMBL400289</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -760,12 +760,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>COc1ccc(COc2ccc(COc3nc(-c4cnn(C)c4)cnc3N)cc2OC)cc1</t>
+          <t>NC(=O)c1cnc2cc(-c3ccncc3)ccc2c1Nc1n[nH]c2ccccc12</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>COc1ccc(COc2ccc(COc3nc(-c4cnn(C)c4)cnc3N)cc2OC)cc1</t>
+          <t>NC(=O)c1cnc2cc(-c3ccncc3)ccc2c1Nc1n[nH]c2ccccc12</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -779,25 +779,25 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>447.5</v>
+        <v>380.41</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J5" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="K5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M5" t="n">
-        <v>106.54</v>
+        <v>109.58</v>
       </c>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
@@ -808,7 +808,7 @@
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F515EB90&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97D690&gt;</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CHEMBL252832</t>
+          <t>CHEMBL489684</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -828,44 +828,44 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CN1CCN(c2ccc(NC(=O)c3ccc(C#N)o3)c(N3CCOCC3)c2)CC1</t>
+          <t>CCc1ccc(-n2cc(C(=O)NOC)c(=O)c3cnc(Nc4ccc(C5CCN(C)CC5)cc4)nc32)cc1</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CN1CCN(c2ccc(NC(=O)c3ccc(C#N)o3)c(N3CCOCC3)c2)CC1</t>
+          <t>CCc1ccc(-n2cc(C(=O)NOC)c(=O)c3cnc(Nc4ccc(C5CCN(C)CC5)cc4)nc32)cc1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>G1 active</t>
+          <t>G2 active</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>G1</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>395.46</v>
+        <v>512.61</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
         <v>7</v>
       </c>
       <c r="J6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M6" t="n">
-        <v>84.98</v>
+        <v>101.38</v>
       </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
@@ -876,7 +876,7 @@
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F515EA40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97E030&gt;</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
@@ -888,7 +888,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CHEMBL1170784</t>
+          <t>CHEMBL504075</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -896,12 +896,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CN1C(=O)CC(c2ccc(NC(=O)c3nc(C#N)c[nH]3)c(C3=CCCCC3)c2)CC1=O</t>
+          <t>Cc1cccc(C(=O)Nc2cccc([C@H](C)Nc3cncc(Cl)n3)c2)c1</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CN1C(=O)CC(c2ccc(NC(=O)c3nc(C#N)c[nH]3)c(C3=CCCCC3)c2)CC1=O</t>
+          <t>Cc1cccc(C(=O)Nc2cccc([C@H](C)Nc3cncc(Cl)n3)c2)c1</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -915,25 +915,25 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>417.47</v>
+        <v>366.85</v>
       </c>
       <c r="H7" t="n">
         <v>2</v>
       </c>
       <c r="I7" t="n">
+        <v>4</v>
+      </c>
+      <c r="J7" t="n">
         <v>5</v>
       </c>
-      <c r="J7" t="n">
-        <v>4</v>
-      </c>
       <c r="K7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M7" t="n">
-        <v>118.95</v>
+        <v>66.91</v>
       </c>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
@@ -944,7 +944,7 @@
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F515E6C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97FC30&gt;</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
@@ -956,7 +956,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CHEMBL255443</t>
+          <t>CHEMBL521887</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -964,12 +964,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CC1CCN(c2cc(C3=CCNCC3)ccc2NC(=O)c2ccc(C#N)o2)CC1</t>
+          <t>Cc1ccc(NC(=O)c2ccc(CN3CCN(C)CC3)cc2)cc1-c1ccc2ccncc2c1</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>CC1CCN(c2cc(C3=CCNCC3)ccc2NC(=O)c2ccc(C#N)o2)CC1</t>
+          <t>Cc1ccc(NC(=O)c2ccc(CN3CCN(C)CC3)cc2)cc1-c1ccc2ccncc2c1</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -983,25 +983,25 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>390.49</v>
+        <v>450.59</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
+        <v>4</v>
+      </c>
+      <c r="J8" t="n">
         <v>5</v>
       </c>
-      <c r="J8" t="n">
-        <v>4</v>
-      </c>
       <c r="K8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M8" t="n">
-        <v>81.3</v>
+        <v>48.47</v>
       </c>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F515DFC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97C9E0&gt;</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CHEMBL450914</t>
+          <t>CHEMBL402908</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1032,12 +1032,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CCN1CCCC(O)(c2cccc(Nc3ncc4c(=O)c(C(=O)NOC)cn(-c5cnc6c(c5)CCC6)c4n3)c2)C1</t>
+          <t>CC1CCN(c2cc(C#CCN3CCOCC3)ccc2NC(=O)c2ccc(C#N)o2)CC1</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>CCN1CCCC(O)(c2cccc(Nc3ncc4c(=O)c(C(=O)NOC)cn(-c5cnc6c(c5)CCC6)c4n3)c2)C1</t>
+          <t>CC1CCN(c2cc(C#CCN3CCOCC3)ccc2NC(=O)c2ccc(C#N)o2)CC1</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>555.64</v>
+        <v>432.52</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J9" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M9" t="n">
-        <v>134.5</v>
+        <v>81.73999999999999</v>
       </c>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
@@ -1080,7 +1080,7 @@
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F515E500&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97CBA0&gt;</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
@@ -1092,7 +1092,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CHEMBL255584</t>
+          <t>CHEMBL258709</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1100,12 +1100,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CN1CCN(c2cccc(Nc3ncc4c(=O)c(C(N)=O)cn(-c5ccc6c(c5)CCC6)c4n3)c2)CC1</t>
+          <t>CC1CCN(c2cc(-c3ccncc3)ccc2NC(=O)c2ccc(C#N)o2)CC1</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>CN1CCN(c2cccc(Nc3ncc4c(=O)c(C(N)=O)cn(-c5ccc6c(c5)CCC6)c4n3)c2)CC1</t>
+          <t>CC1CCN(c2cc(-c3ccncc3)ccc2NC(=O)c2ccc(C#N)o2)CC1</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1119,25 +1119,25 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>495.59</v>
+        <v>386.46</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K10" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M10" t="n">
-        <v>109.38</v>
+        <v>82.16</v>
       </c>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
@@ -1148,7 +1148,7 @@
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F515DCB0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97CEB0&gt;</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
@@ -1216,7 +1216,7 @@
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F515E3B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97CF90&gt;</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
@@ -1228,7 +1228,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CHEMBL1087280</t>
+          <t>CHEMBL480646</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1236,12 +1236,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>COc1ccc(COc2ncc(Oc3nc(-c4cnn(C)c4)cnc3N)cc2OC)cc1</t>
+          <t>COc1cc2ncc(C(N)=O)c(Nc3ccc(F)c(Cl)c3)c2cc1OCCN1CCCC1</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>COc1ccc(COc2ncc(Oc3nc(-c4cnn(C)c4)cnc3N)cc2OC)cc1</t>
+          <t>COc1cc2ncc(C(N)=O)c(Nc3ccc(F)c(Cl)c3)c2cc1OCCN1CCCC1</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1255,13 +1255,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>434.46</v>
+        <v>458.92</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J12" t="n">
         <v>8</v>
@@ -1270,10 +1270,10 @@
         <v>4</v>
       </c>
       <c r="L12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M12" t="n">
-        <v>119.43</v>
+        <v>89.70999999999999</v>
       </c>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
@@ -1284,7 +1284,7 @@
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F515E7A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97D150&gt;</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
@@ -1352,7 +1352,7 @@
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F515E8F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97D9A0&gt;</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
@@ -1364,7 +1364,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CHEMBL256406</t>
+          <t>CHEMBL253026</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1372,12 +1372,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>NC(=O)c1cn(-c2ccc3c(c2)CCC3)c2nc(Nc3ccc(CN4CCOCC4)cc3)ncc2c1=O</t>
+          <t>Cc1cnn(-c2ccc(NC(=O)c3ccc(C#N)o3)c(N3CCCCC3)c2)c1</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NC(=O)c1cn(-c2ccc3c(c2)CCC3)c2nc(Nc3ccc(CN4CCOCC4)cc3)ncc2c1=O</t>
+          <t>Cc1cnn(-c2ccc(NC(=O)c3ccc(C#N)o3)c(N3CCCCC3)c2)c1</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1391,25 +1391,25 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>496.57</v>
+        <v>375.43</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J14" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K14" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M14" t="n">
-        <v>115.37</v>
+        <v>87.09</v>
       </c>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
@@ -1420,7 +1420,7 @@
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F515DE70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97DA10&gt;</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
@@ -1432,7 +1432,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CHEMBL272117</t>
+          <t>CHEMBL1087662</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1440,12 +1440,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CN1CCN(c2ccc(Nc3ncc4c(=O)c(C(N)=O)cn(C5CCCC5)c4n3)cc2)CC1</t>
+          <t>COc1ccc(COc2cnc(COc3nc(-c4cnn(C)c4)cnc3N)cc2OC)cc1</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>CN1CCN(c2ccc(Nc3ncc4c(=O)c(C(N)=O)cn(C5CCCC5)c4n3)cc2)CC1</t>
+          <t>COc1ccc(COc2cnc(COc3nc(-c4cnn(C)c4)cnc3N)cc2OC)cc1</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1459,25 +1459,25 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>447.54</v>
+        <v>448.48</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J15" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M15" t="n">
-        <v>109.38</v>
+        <v>119.43</v>
       </c>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
@@ -1488,7 +1488,7 @@
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F515DE00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97DB60&gt;</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
@@ -1500,7 +1500,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CHEMBL253026</t>
+          <t>CHEMBL271259</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1508,12 +1508,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Cc1cnn(-c2ccc(NC(=O)c3ccc(C#N)o3)c(N3CCCCC3)c2)c1</t>
+          <t>Cc1cc(-c2c(-c3ccccc3)c3cc(Cl)ncc3[nH]c2=O)on1</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Cc1cnn(-c2ccc(NC(=O)c3ccc(C#N)o3)c(N3CCCCC3)c2)c1</t>
+          <t>Cc1cc(-c2c(-c3ccccc3)c3cc(Cl)ncc3[nH]c2=O)on1</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>375.43</v>
+        <v>337.77</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K16" t="n">
         <v>4</v>
       </c>
       <c r="L16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M16" t="n">
-        <v>87.09</v>
+        <v>71.78</v>
       </c>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
@@ -1556,7 +1556,7 @@
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F515DC40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97DBD0&gt;</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
@@ -1568,7 +1568,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CHEMBL245769</t>
+          <t>CHEMBL257865</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1576,12 +1576,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>COCC(=O)Nc1cccc2c1Cc1c-2n[nH]c1-c1csc(C#CCOc2ccccc2)c1</t>
+          <t>CN1CCN(c2ccc(Nc3ncc4c(=O)c(C(N)=O)cn(-c5ccccc5)c4n3)cc2)CC1</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>COCC(=O)Nc1cccc2c1Cc1c-2n[nH]c1-c1csc(C#CCOc2ccccc2)c1</t>
+          <t>CN1CCN(c2ccc(Nc3ncc4c(=O)c(C(N)=O)cn(-c5ccccc5)c4n3)cc2)CC1</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1595,25 +1595,25 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>455.54</v>
+        <v>455.52</v>
       </c>
       <c r="H17" t="n">
         <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K17" t="n">
         <v>5</v>
       </c>
       <c r="L17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M17" t="n">
-        <v>76.23999999999999</v>
+        <v>109.38</v>
       </c>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
@@ -1624,7 +1624,7 @@
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F515E730&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97E260&gt;</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
@@ -1636,7 +1636,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CHEMBL270463</t>
+          <t>CHEMBL522834</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1644,12 +1644,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Cc1cc(-c2c(C3=CCCCC3)c3cc(Cl)ccc3[nH]c2=O)on1</t>
+          <t>CONC(=O)c1cn(-c2ccc3c(c2)CCC3)c2nc(Nc3ccc(CCN4CCOCC4)cc3)ncc2c1=O</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Cc1cc(-c2c(C3=CCCCC3)c3cc(Cl)ccc3[nH]c2=O)on1</t>
+          <t>CONC(=O)c1cn(-c2ccc3c(c2)CCC3)c2nc(Nc3ccc(CCN4CCOCC4)cc3)ncc2c1=O</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1659,29 +1659,29 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>340.81</v>
+        <v>540.62</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J18" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K18" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M18" t="n">
-        <v>58.89</v>
+        <v>110.61</v>
       </c>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
@@ -1692,7 +1692,7 @@
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F515DF50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97E2D0&gt;</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
@@ -1704,7 +1704,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CHEMBL265433</t>
+          <t>CHEMBL249138</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1712,12 +1712,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Cc1sccc1-c1cc(N2CCN(C)CC2)ccc1NC(=O)c1ccc(C#N)o1</t>
+          <t>NC(=O)c1cnc2cc(-c3ccc(C(=O)C4CCCC4)cc3)ccc2c1Nc1ccccc1</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Cc1sccc1-c1cc(N2CCN(C)CC2)ccc1NC(=O)c1ccc(C#N)o1</t>
+          <t>NC(=O)c1cnc2cc(-c3ccc(C(=O)C4CCCC4)cc3)ccc2c1Nc1ccccc1</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1727,29 +1727,29 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>406.51</v>
+        <v>435.53</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
+        <v>4</v>
+      </c>
+      <c r="J19" t="n">
+        <v>6</v>
+      </c>
+      <c r="K19" t="n">
         <v>5</v>
       </c>
-      <c r="J19" t="n">
-        <v>4</v>
-      </c>
-      <c r="K19" t="n">
-        <v>4</v>
-      </c>
       <c r="L19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M19" t="n">
-        <v>72.51000000000001</v>
+        <v>85.08</v>
       </c>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
@@ -1760,7 +1760,7 @@
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F51709E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97D850&gt;</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
@@ -1772,7 +1772,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CHEMBL1171604</t>
+          <t>CHEMBL258461</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1780,12 +1780,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CN1CC(c2ccc(NC(=O)c3nc(C#N)c[nH]3)c(C3=CCC(C)(C)CC3)c2)CN(C)C1=O</t>
+          <t>Cc1ccsc1-c1cc(N2CCN(C)CC2)ccc1NC(=O)c1ccc(C#N)o1</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>CN1CC(c2ccc(NC(=O)c3nc(C#N)c[nH]3)c(C3=CCC(C)(C)CC3)c2)CN(C)C1=O</t>
+          <t>Cc1ccsc1-c1cc(N2CCN(C)CC2)ccc1NC(=O)c1ccc(C#N)o1</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1799,13 +1799,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>446.56</v>
+        <v>406.51</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J20" t="n">
         <v>4</v>
@@ -1814,10 +1814,10 @@
         <v>4</v>
       </c>
       <c r="L20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M20" t="n">
-        <v>105.12</v>
+        <v>72.51000000000001</v>
       </c>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
@@ -1828,7 +1828,7 @@
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F5170A50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97C4A0&gt;</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
@@ -1840,52 +1840,52 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CHEMBL398237</t>
+          <t>C19732504</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CC1CCN(c2cc(N3CCN(CCO)CC3)ccc2NC(=O)c2ccc(C#N)o2)CC1</t>
+          <t>Cn1nc(C(=O)N2CCCCC2)c2c1CC[C@@H]([NH2+]CC(C)(C)C[NH+](C)C)C2</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>CC1CCN(c2cc(N3CCN(CCO)CC3)ccc2NC(=O)c2ccc(C#N)o2)CC1</t>
+          <t>Cn1nc(C(=O)N2CCCCC2)c2c1CC[C@@H]([NH2+]CC(C)(C)C[NH+](C)C)C2</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G2 inactive</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>437.54</v>
+        <v>377.58</v>
       </c>
       <c r="H21" t="n">
         <v>2</v>
       </c>
       <c r="I21" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J21" t="n">
         <v>6</v>
       </c>
       <c r="K21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M21" t="n">
-        <v>95.98</v>
+        <v>59.18</v>
       </c>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
@@ -1896,7 +1896,7 @@
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F5170BA0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B8A3DF0&gt;</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
@@ -1908,52 +1908,52 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CHEMBL252822</t>
+          <t>C36969402</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>N#Cc1ccc(C(=O)Nc2ccc(N3CCS(=O)(=O)CC3)cc2N2CCCCC2)o1</t>
+          <t>C[C@@H]1Oc2ccc(N[C@@H](C)c3ccc(Cl)s3)cc2NC1=O</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>N#Cc1ccc(C(=O)Nc2ccc(N3CCS(=O)(=O)CC3)cc2N2CCCCC2)o1</t>
+          <t>C[C@@H]1Oc2ccc(N[C@@H](C)c3ccc(Cl)s3)cc2NC1=O</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G2 inactive</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>428.51</v>
+        <v>322.82</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L22" t="n">
         <v>2</v>
       </c>
       <c r="M22" t="n">
-        <v>106.65</v>
+        <v>50.36</v>
       </c>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
@@ -1964,7 +1964,7 @@
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F5170C80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B8A3D80&gt;</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
@@ -1976,52 +1976,52 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CHEMBL249138</t>
+          <t>C37353021</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>NC(=O)c1cnc2cc(-c3ccc(C(=O)C4CCCC4)cc3)ccc2c1Nc1ccccc1</t>
+          <t>Cc1nc(N)c2c(C)c(C)n(-c3ccc(Cl)cc3Cl)c2n1</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NC(=O)c1cnc2cc(-c3ccc(C(=O)C4CCCC4)cc3)ccc2c1Nc1ccccc1</t>
+          <t>Cc1nc(N)c2c(C)c(C)n(-c3ccc(Cl)cc3Cl)c2n1</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G2 inactive</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>435.53</v>
+        <v>321.21</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J23" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M23" t="n">
-        <v>85.08</v>
+        <v>56.73</v>
       </c>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
@@ -2032,7 +2032,7 @@
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F5170E40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B8A11C0&gt;</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
@@ -2044,52 +2044,52 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>CHEMBL480455</t>
+          <t>C41301550</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>COc1cc2c(Nc3ccc(F)c(Cl)c3)c(C(N)=O)cnc2cc1OCCN1CCC(O)CC1</t>
+          <t>CC(C)CCNc1nc(N)c([N+](=O)[O-])c(Nc2onc3c2C[C@@H](C)CC3)n1</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>COc1cc2c(Nc3ccc(F)c(Cl)c3)c(C(N)=O)cnc2cc1OCCN1CCC(O)CC1</t>
+          <t>CC(C)CCNc1nc(N)c([N+](=O)[O-])c(Nc2onc3c2C[C@@H](C)CC3)n1</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G2 inactive</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>488.95</v>
+        <v>375.43</v>
       </c>
       <c r="H24" t="n">
         <v>3</v>
       </c>
       <c r="I24" t="n">
+        <v>9</v>
+      </c>
+      <c r="J24" t="n">
         <v>7</v>
       </c>
-      <c r="J24" t="n">
-        <v>8</v>
-      </c>
       <c r="K24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M24" t="n">
-        <v>109.94</v>
+        <v>145.03</v>
       </c>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
@@ -2100,7 +2100,7 @@
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F51710E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B8A1460&gt;</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
@@ -2112,7 +2112,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>C19732504</t>
+          <t>C18199745</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -2120,12 +2120,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Cn1nc(C(=O)N2CCCCC2)c2c1CC[C@@H]([NH2+]CC(C)(C)C[NH+](C)C)C2</t>
+          <t>COc1cc([C@@H]2C3=C(C[C@@H](c4cccs4)CC3=O)Nc3nc(N)nn32)ccc1O</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Cn1nc(C(=O)N2CCCCC2)c2c1CC[C@@H]([NH2+]CC(C)(C)C[NH+](C)C)C2</t>
+          <t>COc1cc([C@@H]2C3=C(C[C@@H](c4cccs4)CC3=O)Nc3nc(N)nn32)ccc1O</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2139,25 +2139,25 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>377.58</v>
+        <v>409.47</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I25" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J25" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M25" t="n">
-        <v>59.18</v>
+        <v>115.29</v>
       </c>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
@@ -2168,7 +2168,7 @@
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F51776F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B8A22D0&gt;</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
@@ -2180,7 +2180,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>C36969402</t>
+          <t>C15911984</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -2188,12 +2188,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>C[C@@H]1Oc2ccc(N[C@@H](C)c3ccc(Cl)s3)cc2NC1=O</t>
+          <t>CC1=N[C@@H]2N(C(=S)NC(=O)c3ccco3)N=C(NC(=O)c3ccco3)N2C(OC(=O)c2ccco2)=C1</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>C[C@@H]1Oc2ccc(N[C@@H](C)c3ccc(Cl)s3)cc2NC1=O</t>
+          <t>CC1=N[C@@H]2N(C(=S)NC(=O)c3ccco3)N=C(NC(=O)c3ccco3)N2C(OC(=O)c2ccco2)=C1</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2207,25 +2207,25 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>322.82</v>
+        <v>508.47</v>
       </c>
       <c r="H26" t="n">
         <v>2</v>
       </c>
       <c r="I26" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M26" t="n">
-        <v>50.36</v>
+        <v>155.12</v>
       </c>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
@@ -2236,7 +2236,7 @@
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F5176EA0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B8A17E0&gt;</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
@@ -2248,7 +2248,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>C37353021</t>
+          <t>C65374437</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -2256,12 +2256,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Cc1nc(N)c2c(C)c(C)n(-c3ccc(Cl)cc3Cl)c2n1</t>
+          <t>O=C1C[C@@H](C2CCCC2)[C@H]2C(=NN=C2c2ccco2)N1</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Cc1nc(N)c2c(C)c(C)n(-c3ccc(Cl)cc3Cl)c2n1</t>
+          <t>O=C1C[C@@H](C2CCCC2)[C@H]2C(=NN=C2c2ccco2)N1</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2275,25 +2275,25 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>321.21</v>
+        <v>271.32</v>
       </c>
       <c r="H27" t="n">
         <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M27" t="n">
-        <v>56.73</v>
+        <v>66.95999999999999</v>
       </c>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
@@ -2304,7 +2304,7 @@
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F5177ED0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B8A1BD0&gt;</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
@@ -2316,7 +2316,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>C41301550</t>
+          <t>C35170788</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -2324,12 +2324,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>CC(C)CCNc1nc(N)c([N+](=O)[O-])c(Nc2onc3c2C[C@@H](C)CC3)n1</t>
+          <t>Cc1cccc(C)c1-n1nnnc1C1(N2CC[NH2+]CC2)C2CC3CC(C2)CC1C3</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>CC(C)CCNc1nc(N)c([N+](=O)[O-])c(Nc2onc3c2C[C@@H](C)CC3)n1</t>
+          <t>Cc1cccc(C)c1-n1nnnc1C1(N2CC[NH2+]CC2)C2CC3CC(C2)CC1C3</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2343,25 +2343,25 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>375.43</v>
+        <v>393.56</v>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J28" t="n">
+        <v>3</v>
+      </c>
+      <c r="K28" t="n">
         <v>7</v>
-      </c>
-      <c r="K28" t="n">
-        <v>3</v>
       </c>
       <c r="L28" t="n">
         <v>2</v>
       </c>
       <c r="M28" t="n">
-        <v>145.03</v>
+        <v>63.45</v>
       </c>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
@@ -2372,7 +2372,7 @@
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F51773E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B8A3CA0&gt;</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
@@ -2384,7 +2384,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>C18199745</t>
+          <t>C01130626</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -2392,12 +2392,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>COc1cc([C@@H]2C3=C(C[C@@H](c4cccs4)CC3=O)Nc3nc(N)nn32)ccc1O</t>
+          <t>COC(=O)c1c(NC(=O)c2oc3cc(C)c(C)cc3c2C)sc(C(C)=O)c1C</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>COc1cc([C@@H]2C3=C(C[C@@H](c4cccs4)CC3=O)Nc3nc(N)nn32)ccc1O</t>
+          <t>COC(=O)c1c(NC(=O)c2oc3cc(C)c(C)cc3c2C)sc(C(C)=O)c1C</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2411,25 +2411,25 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>409.47</v>
+        <v>399.47</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L29" t="n">
         <v>3</v>
       </c>
       <c r="M29" t="n">
-        <v>115.29</v>
+        <v>85.61</v>
       </c>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
@@ -2440,7 +2440,7 @@
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F5177290&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B8A0C10&gt;</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
@@ -2452,7 +2452,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>C15911984</t>
+          <t>C04697835</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -2460,12 +2460,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CC1=N[C@@H]2N(C(=S)NC(=O)c3ccco3)N=C(NC(=O)c3ccco3)N2C(OC(=O)c2ccco2)=C1</t>
+          <t>C/C(=C/C(=O)Nc1cccc2c1CCCC2)NNC(=O)c1ccccc1O</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>CC1=N[C@@H]2N(C(=S)NC(=O)c3ccco3)N=C(NC(=O)c3ccco3)N2C(OC(=O)c2ccco2)=C1</t>
+          <t>C/C(=C/C(=O)Nc1cccc2c1CCCC2)NNC(=O)c1ccccc1O</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2479,25 +2479,25 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>508.47</v>
+        <v>365.43</v>
       </c>
       <c r="H30" t="n">
+        <v>4</v>
+      </c>
+      <c r="I30" t="n">
+        <v>4</v>
+      </c>
+      <c r="J30" t="n">
+        <v>5</v>
+      </c>
+      <c r="K30" t="n">
+        <v>3</v>
+      </c>
+      <c r="L30" t="n">
         <v>2</v>
       </c>
-      <c r="I30" t="n">
-        <v>10</v>
-      </c>
-      <c r="J30" t="n">
-        <v>4</v>
-      </c>
-      <c r="K30" t="n">
-        <v>5</v>
-      </c>
-      <c r="L30" t="n">
-        <v>3</v>
-      </c>
       <c r="M30" t="n">
-        <v>155.12</v>
+        <v>90.45999999999999</v>
       </c>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
@@ -2508,7 +2508,7 @@
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F5176C70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B8A3C30&gt;</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
@@ -2520,7 +2520,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>C65374437</t>
+          <t>C39941776</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -2528,12 +2528,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>O=C1C[C@@H](C2CCCC2)[C@H]2C(=NN=C2c2ccco2)N1</t>
+          <t>O=C(CNC(=O)c1cccc2ccccc12)N/N=C/[C@H]1C=c2ccccc2=[NH+]C1=O</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>O=C1C[C@@H](C2CCCC2)[C@H]2C(=NN=C2c2ccco2)N1</t>
+          <t>O=C(CNC(=O)c1cccc2ccccc12)N/N=C/[C@H]1C=c2ccccc2=[NH+]C1=O</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2547,25 +2547,25 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>271.32</v>
+        <v>399.43</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K31" t="n">
         <v>4</v>
       </c>
       <c r="L31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M31" t="n">
-        <v>66.95999999999999</v>
+        <v>101.6</v>
       </c>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
@@ -2576,7 +2576,7 @@
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F5177370&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B8A03C0&gt;</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
@@ -2588,7 +2588,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>C35170788</t>
+          <t>C24991228</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -2596,12 +2596,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Cc1cccc(C)c1-n1nnnc1C1(N2CC[NH2+]CC2)C2CC3CC(C2)CC1C3</t>
+          <t>O=C(C[C@H]1NC(=O)N(C[C@@H](O)COc2cc(Cl)ccc2Cl)C1=O)N1CCOCC1</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Cc1cccc(C)c1-n1nnnc1C1(N2CC[NH2+]CC2)C2CC3CC(C2)CC1C3</t>
+          <t>O=C(C[C@H]1NC(=O)N(C[C@@H](O)COc2cc(Cl)ccc2Cl)C1=O)N1CCOCC1</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2615,25 +2615,25 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>393.56</v>
+        <v>446.29</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J32" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K32" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M32" t="n">
-        <v>63.45</v>
+        <v>108.41</v>
       </c>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
@@ -2644,7 +2644,7 @@
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F5177AE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B8A1540&gt;</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
@@ -2656,7 +2656,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>C01130626</t>
+          <t>C05464877</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -2664,12 +2664,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>COC(=O)c1c(NC(=O)c2oc3cc(C)c(C)cc3c2C)sc(C(C)=O)c1C</t>
+          <t>CC1(C)CC(NC(=O)CCC(=O)N2C(C)(C)CC([NH3+])CC2(C)C)CC(C)(C)[NH2+]1</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>COC(=O)c1c(NC(=O)c2oc3cc(C)c(C)cc3c2C)sc(C(C)=O)c1C</t>
+          <t>CC1(C)CC(NC(=O)CCC(=O)N2C(C)(C)CC([NH3+])CC2(C)C)CC(C)(C)[NH2+]1</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2683,25 +2683,25 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>399.47</v>
+        <v>396.62</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J33" t="n">
         <v>4</v>
       </c>
       <c r="K33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>85.61</v>
+        <v>93.66</v>
       </c>
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
@@ -2712,7 +2712,7 @@
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F5177450&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B8A3D10&gt;</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
@@ -2724,7 +2724,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>C04697835</t>
+          <t>C26919716</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -2732,12 +2732,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>C/C(=C/C(=O)Nc1cccc2c1CCCC2)NNC(=O)c1ccccc1O</t>
+          <t>CCCNS(=O)(=O)c1ccc2nc([N-]S(=O)(=O)c3ccc(Br)cc3)sc2c1</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>C/C(=C/C(=O)Nc1cccc2c1CCCC2)NNC(=O)c1ccccc1O</t>
+          <t>CCCNS(=O)(=O)c1ccc2nc([N-]S(=O)(=O)c3ccc(Br)cc3)sc2c1</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2751,25 +2751,25 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>365.43</v>
+        <v>489.42</v>
       </c>
       <c r="H34" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J34" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K34" t="n">
         <v>3</v>
       </c>
       <c r="L34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M34" t="n">
-        <v>90.45999999999999</v>
+        <v>107.3</v>
       </c>
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
@@ -2780,7 +2780,7 @@
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F5176A40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B8A2B90&gt;</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
@@ -2792,7 +2792,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>C39941776</t>
+          <t>C52569910</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -2800,12 +2800,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>O=C(CNC(=O)c1cccc2ccccc12)N/N=C/[C@H]1C=c2ccccc2=[NH+]C1=O</t>
+          <t>Cc1n[nH]c2ccc(-c3cc(OC[C@@H]([NH3+])CC4=c5ccc(F)cc5=[NH+]C4)cnc3-c3ccoc3)cc12</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>O=C(CNC(=O)c1cccc2ccccc12)N/N=C/[C@H]1C=c2ccccc2=[NH+]C1=O</t>
+          <t>Cc1n[nH]c2ccc(-c3cc(OC[C@@H]([NH3+])CC4=c5ccc(F)cc5=[NH+]C4)cnc3-c3ccoc3)cc12</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2819,25 +2819,25 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>399.43</v>
+        <v>483.55</v>
       </c>
       <c r="H35" t="n">
         <v>3</v>
       </c>
       <c r="I35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J35" t="n">
+        <v>7</v>
+      </c>
+      <c r="K35" t="n">
+        <v>6</v>
+      </c>
+      <c r="L35" t="n">
         <v>5</v>
       </c>
-      <c r="K35" t="n">
-        <v>4</v>
-      </c>
-      <c r="L35" t="n">
-        <v>3</v>
-      </c>
       <c r="M35" t="n">
-        <v>101.6</v>
+        <v>105.55</v>
       </c>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
@@ -2848,7 +2848,7 @@
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F51769D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B8A3300&gt;</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
@@ -2860,7 +2860,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>C24991228</t>
+          <t>C26845392</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -2868,12 +2868,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>O=C(C[C@H]1NC(=O)N(C[C@@H](O)COc2cc(Cl)ccc2Cl)C1=O)N1CCOCC1</t>
+          <t>O=C1N[C@@H](c2ccc(Br)cc2)Nc2c1sc1[nH+]c3c(cc21)CCCC3</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>O=C(C[C@H]1NC(=O)N(C[C@@H](O)COc2cc(Cl)ccc2Cl)C1=O)N1CCOCC1</t>
+          <t>O=C1N[C@@H](c2ccc(Br)cc2)Nc2c1sc1[nH+]c3c(cc21)CCCC3</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2887,25 +2887,25 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>446.29</v>
+        <v>415.34</v>
       </c>
       <c r="H36" t="n">
         <v>2</v>
       </c>
       <c r="I36" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J36" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L36" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M36" t="n">
-        <v>108.41</v>
+        <v>55.27</v>
       </c>
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
@@ -2916,7 +2916,7 @@
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F51766C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B8A3450&gt;</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
@@ -2928,7 +2928,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>C05464877</t>
+          <t>C08187989</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -2936,12 +2936,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CC1(C)CC(NC(=O)CCC(=O)N2C(C)(C)CC([NH3+])CC2(C)C)CC(C)(C)[NH2+]1</t>
+          <t>CNC(=O)CN1C(=O)NC(c2ccc(C)cc2)(c2ccc(C)cc2)C1=O</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>CC1(C)CC(NC(=O)CCC(=O)N2C(C)(C)CC([NH3+])CC2(C)C)CC(C)(C)[NH2+]1</t>
+          <t>CNC(=O)CN1C(=O)NC(c2ccc(C)cc2)(c2ccc(C)cc2)C1=O</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2951,29 +2951,29 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>396.62</v>
+        <v>351.41</v>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I37" t="n">
+        <v>3</v>
+      </c>
+      <c r="J37" t="n">
+        <v>4</v>
+      </c>
+      <c r="K37" t="n">
+        <v>3</v>
+      </c>
+      <c r="L37" t="n">
         <v>2</v>
       </c>
-      <c r="J37" t="n">
-        <v>4</v>
-      </c>
-      <c r="K37" t="n">
-        <v>2</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
       <c r="M37" t="n">
-        <v>93.66</v>
+        <v>78.51000000000001</v>
       </c>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
@@ -2984,7 +2984,7 @@
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F51765E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B8A2A40&gt;</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
@@ -2996,7 +2996,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>C26919716</t>
+          <t>C59170859</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -3004,12 +3004,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>CCCNS(=O)(=O)c1ccc2nc([N-]S(=O)(=O)c3ccc(Br)cc3)sc2c1</t>
+          <t>CCOc1cc(Br)cc2cc(C(N)=S)/c(=[NH+]/c3cc(C)ccc3C)oc12</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>CCCNS(=O)(=O)c1ccc2nc([N-]S(=O)(=O)c3ccc(Br)cc3)sc2c1</t>
+          <t>CCOc1cc(Br)cc2cc(C(N)=S)/c(=[NH+]/c3cc(C)ccc3C)oc12</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -3019,20 +3019,20 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>489.42</v>
+        <v>432.36</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J38" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K38" t="n">
         <v>3</v>
@@ -3041,7 +3041,7 @@
         <v>3</v>
       </c>
       <c r="M38" t="n">
-        <v>107.3</v>
+        <v>62.36</v>
       </c>
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
@@ -3052,7 +3052,7 @@
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F51778B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B8A2180&gt;</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
@@ -3064,7 +3064,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>C52569910</t>
+          <t>C38792984</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -3072,12 +3072,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Cc1n[nH]c2ccc(-c3cc(OC[C@@H]([NH3+])CC4=c5ccc(F)cc5=[NH+]C4)cnc3-c3ccoc3)cc12</t>
+          <t>O=C(/[NH+]=C1\C=CC2=NC([O-])=NC2=C1)C1(Cc2nc3ccccc3s2)CCCC1</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Cc1n[nH]c2ccc(-c3cc(OC[C@@H]([NH3+])CC4=c5ccc(F)cc5=[NH+]C4)cnc3-c3ccoc3)cc12</t>
+          <t>O=C(/[NH+]=C1\C=CC2=NC([O-])=NC2=C1)C1(Cc2nc3ccccc3s2)CCCC1</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -3087,29 +3087,29 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>483.55</v>
+        <v>390.47</v>
       </c>
       <c r="H39" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J39" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K39" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M39" t="n">
-        <v>105.55</v>
+        <v>91.70999999999999</v>
       </c>
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
@@ -3120,7 +3120,7 @@
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F5177140&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B8A1AF0&gt;</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
@@ -3132,7 +3132,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>C26845392</t>
+          <t>C13959458</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -3140,12 +3140,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>O=C1N[C@@H](c2ccc(Br)cc2)Nc2c1sc1[nH+]c3c(cc21)CCCC3</t>
+          <t>O=C(Nc1nc(-c2ccc(OC(F)F)cc2)cs1)c1nn(C23CC4CC(CC(C4)C2)C3)cc1[N+](=O)[O-]</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>O=C1N[C@@H](c2ccc(Br)cc2)Nc2c1sc1[nH+]c3c(cc21)CCCC3</t>
+          <t>O=C(Nc1nc(-c2ccc(OC(F)F)cc2)cs1)c1nn(C23CC4CC(CC(C4)C2)C3)cc1[N+](=O)[O-]</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -3155,29 +3155,29 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>415.34</v>
+        <v>515.54</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J40" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K40" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L40" t="n">
         <v>3</v>
       </c>
       <c r="M40" t="n">
-        <v>55.27</v>
+        <v>112.18</v>
       </c>
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr"/>
@@ -3188,7 +3188,7 @@
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F51767A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B8A0E40&gt;</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
@@ -3200,7 +3200,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>C08187989</t>
+          <t>CHEMBL3629013</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -3208,12 +3208,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>CNC(=O)CN1C(=O)NC(c2ccc(C)cc2)(c2ccc(C)cc2)C1=O</t>
+          <t>N#Cc1ccnc(Nc2cc(C3CCN(C4COC4)CC3)n(C3CCCC3)n2)c1</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>CNC(=O)CN1C(=O)NC(c2ccc(C)cc2)(c2ccc(C)cc2)C1=O</t>
+          <t>N#Cc1ccnc(Nc2cc(C3CCN(C4COC4)CC3)n(C3CCCC3)n2)c1</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -3223,40 +3223,66 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>External</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>351.41</v>
+        <v>392.51</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L41" t="n">
         <v>2</v>
       </c>
       <c r="M41" t="n">
-        <v>78.51000000000001</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="inlineStr"/>
-      <c r="T41" t="inlineStr"/>
+        <v>79</v>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>IC50</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>'='</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>nM</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>57000</v>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>CHEMBL3631839</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>Inhibition of CSF1R (unknown origin) by FRET method</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>single protein format</t>
+        </is>
+      </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F5176880&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B8A2030&gt;</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
@@ -3268,7 +3294,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>C59170859</t>
+          <t>CHEMBL2152768</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -3276,12 +3302,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>CCOc1cc(Br)cc2cc(C(N)=S)/c(=[NH+]/c3cc(C)ccc3C)oc12</t>
+          <t>CC(C)(O)C1CCN(Cc2ccc3nc(-c4c(F)ccc5[nH]ccc45)nc(N4CCOCC4)c3n2)CC1</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>CCOc1cc(Br)cc2cc(C(N)=S)/c(=[NH+]/c3cc(C)ccc3C)oc12</t>
+          <t>CC(C)(O)C1CCN(Cc2ccc3nc(-c4c(F)ccc5[nH]ccc45)nc(N4CCOCC4)c3n2)CC1</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -3291,40 +3317,66 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>External</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>432.36</v>
+        <v>504.61</v>
       </c>
       <c r="H42" t="n">
         <v>2</v>
       </c>
       <c r="I42" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K42" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M42" t="n">
-        <v>62.36</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="inlineStr"/>
-      <c r="T42" t="inlineStr"/>
+        <v>90.40000000000001</v>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>Inhibition</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>'='</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>-3.3</v>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>CHEMBL2156514</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>Inhibition of CSF1R at 1 uM</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>single protein format</t>
+        </is>
+      </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F5176C00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B8A25E0&gt;</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
@@ -3336,7 +3388,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>C38792984</t>
+          <t>CHEMBL4278763</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -3344,12 +3396,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>O=C(/[NH+]=C1\C=CC2=NC([O-])=NC2=C1)C1(Cc2nc3ccccc3s2)CCCC1</t>
+          <t>NC1(c2ccc(-c3cnc4c(-c5ccc(S(N)(=O)=O)c6ccccc56)cnn4c3)cc2)CCC1</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>O=C(/[NH+]=C1\C=CC2=NC([O-])=NC2=C1)C1(Cc2nc3ccccc3s2)CCCC1</t>
+          <t>NC1(c2ccc(-c3cnc4c(-c5ccc(S(N)(=O)=O)c6ccccc56)cnn4c3)cc2)CCC1</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -3359,40 +3411,66 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>External</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>390.47</v>
+        <v>469.57</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K43" t="n">
+        <v>6</v>
+      </c>
+      <c r="L43" t="n">
         <v>5</v>
       </c>
-      <c r="L43" t="n">
-        <v>2</v>
-      </c>
       <c r="M43" t="n">
-        <v>91.70999999999999</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="inlineStr"/>
-      <c r="T43" t="inlineStr"/>
+        <v>116.37</v>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>Inhibition</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>'='</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>10</v>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>CHEMBL4263811</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>Inhibition of FMS (unknown origin) at 1 uM relative to control</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>single protein format</t>
+        </is>
+      </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F51777D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B8A2DC0&gt;</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
@@ -3404,7 +3482,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>C13959458</t>
+          <t>CHEMBL583042</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -3412,12 +3490,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>O=C(Nc1nc(-c2ccc(OC(F)F)cc2)cs1)c1nn(C23CC4CC(CC(C4)C2)C3)cc1[N+](=O)[O-]</t>
+          <t>Cc1cnc(Nc2ccc(F)cc2Cl)nc1-c1c[nH]c(C(=O)N[C@H](CO)c2cccc(Cl)c2)c1</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>O=C(Nc1nc(-c2ccc(OC(F)F)cc2)cs1)c1nn(C23CC4CC(CC(C4)C2)C3)cc1[N+](=O)[O-]</t>
+          <t>Cc1cnc(Nc2ccc(F)cc2Cl)nc1-c1c[nH]c(C(=O)N[C@H](CO)c2cccc(Cl)c2)c1</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -3427,40 +3505,66 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>External</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>515.54</v>
+        <v>500.36</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I44" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J44" t="n">
         <v>7</v>
       </c>
       <c r="K44" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M44" t="n">
-        <v>112.18</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="inlineStr"/>
-      <c r="T44" t="inlineStr"/>
+        <v>102.93</v>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>Inhibition</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>'='</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>6</v>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>CHEMBL1041364</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>Inhibition of FMS at 1 uM</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>single protein format</t>
+        </is>
+      </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F5177060&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B8A3BC0&gt;</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
@@ -3472,7 +3576,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>CHEMBL3629013</t>
+          <t>CHEMBL1794071</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -3480,12 +3584,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>N#Cc1ccnc(Nc2cc(C3CCN(C4COC4)CC3)n(C3CCCC3)n2)c1</t>
+          <t>ON=C1CCc2cc(-c3nc(C4CCNCC4)[nH]c3-c3ccncc3)ccc21</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>N#Cc1ccnc(Nc2cc(C3CCN(C4COC4)CC3)n(C3CCCC3)n2)c1</t>
+          <t>ON=C1CCc2cc(-c3nc(C4CCNCC4)[nH]c3-c3ccncc3)ccc21</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -3499,29 +3603,29 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>392.51</v>
+        <v>373.46</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I45" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K45" t="n">
         <v>5</v>
       </c>
       <c r="L45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M45" t="n">
-        <v>79</v>
+        <v>86.19</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>IC50</t>
+          <t>Inhibition</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -3531,20 +3635,20 @@
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>nM</t>
+          <t>%</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>57000</v>
+        <v>1.41</v>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>CHEMBL3631839</t>
+          <t>CHEMBL1962102</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>Inhibition of CSF1R (unknown origin) by FRET method</t>
+          <t>GSK_PKIS: FMS mean inhibition at 0.1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="T45" t="inlineStr">
@@ -3554,7 +3658,7 @@
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F5177D10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B8A2650&gt;</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
@@ -3566,7 +3670,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>CHEMBL2152768</t>
+          <t>CHEMBL1909380</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -3574,12 +3678,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>CC(C)(O)C1CCN(Cc2ccc3nc(-c4c(F)ccc5[nH]ccc45)nc(N4CCOCC4)c3n2)CC1</t>
+          <t>COc1cc2ncnc(Nc3ccc4c(cnn4Cc4ccccc4)c3)c2cc1OC</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>CC(C)(O)C1CCN(Cc2ccc3nc(-c4c(F)ccc5[nH]ccc45)nc(N4CCOCC4)c3n2)CC1</t>
+          <t>COc1cc2ncnc(Nc3ccc4c(cnn4Cc4ccccc4)c3)c2cc1OC</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -3593,25 +3697,25 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>504.61</v>
+        <v>411.47</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J46" t="n">
+        <v>6</v>
+      </c>
+      <c r="K46" t="n">
         <v>5</v>
       </c>
-      <c r="K46" t="n">
-        <v>6</v>
-      </c>
       <c r="L46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M46" t="n">
-        <v>90.40000000000001</v>
+        <v>74.09</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3629,16 +3733,16 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>-3.3</v>
+        <v>0.65</v>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>CHEMBL2156514</t>
+          <t>CHEMBL1962102</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>Inhibition of CSF1R at 1 uM</t>
+          <t>GSK_PKIS: FMS mean inhibition at 0.1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="T46" t="inlineStr">
@@ -3648,7 +3752,7 @@
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F5177A00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B8A0660&gt;</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
@@ -3660,7 +3764,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>CHEMBL4278763</t>
+          <t>CHEMBL230597</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -3668,12 +3772,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>NC1(c2ccc(-c3cnc4c(-c5ccc(S(N)(=O)=O)c6ccccc56)cnn4c3)cc2)CCC1</t>
+          <t>CS(=O)(=O)Nc1ccc(-c2cc(-c3ccccc3)cc(C(N)=O)c2N)cc1</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>NC1(c2ccc(-c3cnc4c(-c5ccc(S(N)(=O)=O)c6ccccc56)cnn4c3)cc2)CCC1</t>
+          <t>CS(=O)(=O)Nc1ccc(-c2cc(-c3ccccc3)cc(C(N)=O)c2N)cc1</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -3687,25 +3791,25 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>469.57</v>
+        <v>381.46</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I47" t="n">
+        <v>4</v>
+      </c>
+      <c r="J47" t="n">
         <v>5</v>
       </c>
-      <c r="J47" t="n">
-        <v>4</v>
-      </c>
       <c r="K47" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M47" t="n">
-        <v>116.37</v>
+        <v>115.28</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3723,16 +3827,16 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>10</v>
+        <v>5.24</v>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>CHEMBL4263811</t>
+          <t>CHEMBL1962102</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>Inhibition of FMS (unknown origin) at 1 uM relative to control</t>
+          <t>GSK_PKIS: FMS mean inhibition at 0.1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="T47" t="inlineStr">
@@ -3742,7 +3846,7 @@
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F5177A70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B8A27A0&gt;</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
@@ -3754,7 +3858,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>CHEMBL583042</t>
+          <t>C38338242</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -3762,12 +3866,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Cc1cnc(Nc2ccc(F)cc2Cl)nc1-c1c[nH]c(C(=O)N[C@H](CO)c2cccc(Cl)c2)c1</t>
+          <t>N/C(N/N=C/c1ccc(Cl)cc1)=[NH+]\N=C\c1ccc(Cl)cc1</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Cc1cnc(Nc2ccc(F)cc2Cl)nc1-c1c[nH]c(C(=O)N[C@H](CO)c2cccc(Cl)c2)c1</t>
+          <t>N/C(N/N=C/c1ccc(Cl)cc1)=[NH+]\N=C\c1ccc(Cl)cc1</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -3777,419 +3881,43 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>500.36</v>
+        <v>335.22</v>
       </c>
       <c r="H48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J48" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M48" t="n">
-        <v>102.93</v>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P48" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q48" t="n">
-        <v>6</v>
-      </c>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t>CHEMBL1041364</t>
-        </is>
-      </c>
-      <c r="S48" t="inlineStr">
-        <is>
-          <t>Inhibition of FMS at 1 uM</t>
-        </is>
-      </c>
-      <c r="T48" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>76.73999999999999</v>
+      </c>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr"/>
+      <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F51763B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B8A21F0&gt;</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
-        <is>
-          <t>G2</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>CHEMBL1794071</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>0</v>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>ON=C1CCc2cc(-c3nc(C4CCNCC4)[nH]c3-c3ccncc3)ccc21</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>ON=C1CCc2cc(-c3nc(C4CCNCC4)[nH]c3-c3ccncc3)ccc21</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G49" t="n">
-        <v>373.46</v>
-      </c>
-      <c r="H49" t="n">
-        <v>3</v>
-      </c>
-      <c r="I49" t="n">
-        <v>4</v>
-      </c>
-      <c r="J49" t="n">
-        <v>3</v>
-      </c>
-      <c r="K49" t="n">
-        <v>5</v>
-      </c>
-      <c r="L49" t="n">
-        <v>3</v>
-      </c>
-      <c r="M49" t="n">
-        <v>86.19</v>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P49" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q49" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="R49" t="inlineStr">
-        <is>
-          <t>CHEMBL1962102</t>
-        </is>
-      </c>
-      <c r="S49" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: FMS mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T49" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-      <c r="U49" t="inlineStr">
-        <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F5177300&gt;</t>
-        </is>
-      </c>
-      <c r="V49" t="inlineStr">
-        <is>
-          <t>G2</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>CHEMBL1909380</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>0</v>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>COc1cc2ncnc(Nc3ccc4c(cnn4Cc4ccccc4)c3)c2cc1OC</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>COc1cc2ncnc(Nc3ccc4c(cnn4Cc4ccccc4)c3)c2cc1OC</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G50" t="n">
-        <v>411.47</v>
-      </c>
-      <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>6</v>
-      </c>
-      <c r="J50" t="n">
-        <v>6</v>
-      </c>
-      <c r="K50" t="n">
-        <v>5</v>
-      </c>
-      <c r="L50" t="n">
-        <v>5</v>
-      </c>
-      <c r="M50" t="n">
-        <v>74.09</v>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P50" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q50" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="R50" t="inlineStr">
-        <is>
-          <t>CHEMBL1962102</t>
-        </is>
-      </c>
-      <c r="S50" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: FMS mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T50" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-      <c r="U50" t="inlineStr">
-        <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F5177220&gt;</t>
-        </is>
-      </c>
-      <c r="V50" t="inlineStr">
-        <is>
-          <t>G2</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>CHEMBL230597</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>0</v>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>CS(=O)(=O)Nc1ccc(-c2cc(-c3ccccc3)cc(C(N)=O)c2N)cc1</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>CS(=O)(=O)Nc1ccc(-c2cc(-c3ccccc3)cc(C(N)=O)c2N)cc1</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G51" t="n">
-        <v>381.46</v>
-      </c>
-      <c r="H51" t="n">
-        <v>3</v>
-      </c>
-      <c r="I51" t="n">
-        <v>4</v>
-      </c>
-      <c r="J51" t="n">
-        <v>5</v>
-      </c>
-      <c r="K51" t="n">
-        <v>3</v>
-      </c>
-      <c r="L51" t="n">
-        <v>3</v>
-      </c>
-      <c r="M51" t="n">
-        <v>115.28</v>
-      </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P51" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q51" t="n">
-        <v>5.24</v>
-      </c>
-      <c r="R51" t="inlineStr">
-        <is>
-          <t>CHEMBL1962102</t>
-        </is>
-      </c>
-      <c r="S51" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: FMS mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T51" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-      <c r="U51" t="inlineStr">
-        <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F5176CE0&gt;</t>
-        </is>
-      </c>
-      <c r="V51" t="inlineStr">
-        <is>
-          <t>G2</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>C38338242</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>N/C(N/N=C/c1ccc(Cl)cc1)=[NH+]\N=C\c1ccc(Cl)cc1</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>N/C(N/N=C/c1ccc(Cl)cc1)=[NH+]\N=C\c1ccc(Cl)cc1</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Test</t>
-        </is>
-      </c>
-      <c r="G52" t="n">
-        <v>335.22</v>
-      </c>
-      <c r="H52" t="n">
-        <v>3</v>
-      </c>
-      <c r="I52" t="n">
-        <v>2</v>
-      </c>
-      <c r="J52" t="n">
-        <v>4</v>
-      </c>
-      <c r="K52" t="n">
-        <v>2</v>
-      </c>
-      <c r="L52" t="n">
-        <v>2</v>
-      </c>
-      <c r="M52" t="n">
-        <v>76.73999999999999</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="inlineStr"/>
-      <c r="T52" t="inlineStr"/>
-      <c r="U52" t="inlineStr">
-        <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C7F5177920&gt;</t>
-        </is>
-      </c>
-      <c r="V52" t="inlineStr">
         <is>
           <t>G2</t>
         </is>

--- a/F_dataset/DUD-E/CSF1R/CSF1R_preprocessing/CSF1R_valid.xlsx
+++ b/F_dataset/DUD-E/CSF1R/CSF1R_preprocessing/CSF1R_valid.xlsx
@@ -548,7 +548,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CHEMBL452664</t>
+          <t>CHEMBL456008</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -556,12 +556,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>COc1cc2ncc(C(N)=O)c(Nc3cccc(Cl)c3Cl)c2cc1NCCN(C)C</t>
+          <t>Cc1cc(C(=O)Nc2cccc([C@H](C)Nc3cncc(Cl)n3)c2)ccn1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>COc1cc2ncc(C(N)=O)c(Nc3cccc(Cl)c3Cl)c2cc1NCCN(C)C</t>
+          <t>Cc1cc(C(=O)Nc2cccc([C@H](C)Nc3cncc(Cl)n3)c2)ccn1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -575,16 +575,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>448.35</v>
+        <v>367.84</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J2" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K2" t="n">
         <v>3</v>
@@ -593,7 +593,7 @@
         <v>3</v>
       </c>
       <c r="M2" t="n">
-        <v>92.51000000000001</v>
+        <v>79.8</v>
       </c>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
@@ -604,7 +604,7 @@
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B864350&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7EE397450&gt;</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
@@ -616,7 +616,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CHEMBL1088598</t>
+          <t>CHEMBL252832</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -624,12 +624,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Nc1ncc(-c2ccc(C(=O)N3CCC[C@H]3CN3CCCC3)cc2)nc1NCc1c(Cl)cccc1Cl</t>
+          <t>CN1CCN(c2ccc(NC(=O)c3ccc(C#N)o3)c(N3CCOCC3)c2)CC1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Nc1ncc(-c2ccc(C(=O)N3CCC[C@H]3CN3CCCC3)cc2)nc1NCc1c(Cl)cccc1Cl</t>
+          <t>CN1CCN(c2ccc(NC(=O)c3ccc(C#N)o3)c(N3CCOCC3)c2)CC1</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -643,25 +643,25 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>525.48</v>
+        <v>395.46</v>
       </c>
       <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>7</v>
+      </c>
+      <c r="J3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K3" t="n">
+        <v>4</v>
+      </c>
+      <c r="L3" t="n">
         <v>2</v>
       </c>
-      <c r="I3" t="n">
-        <v>6</v>
-      </c>
-      <c r="J3" t="n">
-        <v>7</v>
-      </c>
-      <c r="K3" t="n">
-        <v>5</v>
-      </c>
-      <c r="L3" t="n">
-        <v>3</v>
-      </c>
       <c r="M3" t="n">
-        <v>87.38</v>
+        <v>84.98</v>
       </c>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
@@ -672,7 +672,7 @@
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97C510&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7EE397530&gt;</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
@@ -684,7 +684,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CHEMBL255213</t>
+          <t>CHEMBL1171605</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -692,44 +692,44 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CCc1ccc(-c2c(-c3cc(C)no3)c(=O)[nH]c3ccc(Cl)cc23)cc1</t>
+          <t>CN1CC(c2ccc(NC(=O)c3nc(C#N)c[nH]3)c(C3=CCCCCC3)c2)CN(C)C1=O</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CCc1ccc(-c2c(-c3cc(C)no3)c(=O)[nH]c3ccc(Cl)cc23)cc1</t>
+          <t>CN1CC(c2ccc(NC(=O)c3nc(C#N)c[nH]3)c(C3=CCCCCC3)c2)CN(C)C1=O</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>G1 active</t>
+          <t>G2 active</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>G1</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>364.83</v>
+        <v>432.53</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K4" t="n">
         <v>4</v>
       </c>
       <c r="L4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M4" t="n">
-        <v>58.89</v>
+        <v>105.12</v>
       </c>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
@@ -740,7 +740,7 @@
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97D2A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7EE397610&gt;</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
@@ -752,7 +752,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CHEMBL400289</t>
+          <t>CHEMBL1172347</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -760,44 +760,44 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>NC(=O)c1cnc2cc(-c3ccncc3)ccc2c1Nc1n[nH]c2ccccc12</t>
+          <t>N#Cc1c[nH]c(C(=O)Nc2ccc(-c3ccc[n+]([O-])c3)cc2C2=CCCCC2)n1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NC(=O)c1cnc2cc(-c3ccncc3)ccc2c1Nc1n[nH]c2ccccc12</t>
+          <t>N#Cc1c[nH]c(C(=O)Nc2ccc(-c3ccc[n+]([O-])c3)cc2C2=CCCCC2)n1</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>G1 active</t>
+          <t>G2 active</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>G1</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>380.41</v>
+        <v>385.43</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J5" t="n">
         <v>4</v>
       </c>
       <c r="K5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M5" t="n">
-        <v>109.58</v>
+        <v>108.51</v>
       </c>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
@@ -808,7 +808,7 @@
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97D690&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7EE397920&gt;</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CHEMBL489684</t>
+          <t>CHEMBL504075</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -828,12 +828,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CCc1ccc(-n2cc(C(=O)NOC)c(=O)c3cnc(Nc4ccc(C5CCN(C)CC5)cc4)nc32)cc1</t>
+          <t>Cc1cccc(C(=O)Nc2cccc([C@H](C)Nc3cncc(Cl)n3)c2)c1</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CCc1ccc(-n2cc(C(=O)NOC)c(=O)c3cnc(Nc4ccc(C5CCN(C)CC5)cc4)nc32)cc1</t>
+          <t>Cc1cccc(C(=O)Nc2cccc([C@H](C)Nc3cncc(Cl)n3)c2)c1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -847,25 +847,25 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>512.61</v>
+        <v>366.85</v>
       </c>
       <c r="H6" t="n">
         <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M6" t="n">
-        <v>101.38</v>
+        <v>66.91</v>
       </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
@@ -876,7 +876,7 @@
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97E030&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7EE397990&gt;</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
@@ -888,7 +888,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CHEMBL504075</t>
+          <t>CHEMBL402852</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -896,12 +896,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Cc1cccc(C(=O)Nc2cccc([C@H](C)Nc3cncc(Cl)n3)c2)c1</t>
+          <t>NC(=O)c1cn(-c2ccc3c(c2)CCC3)c2nc(Nc3cccc(C(=O)N4CCCCC4)c3)ncc2c1=O</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Cc1cccc(C(=O)Nc2cccc([C@H](C)Nc3cncc(Cl)n3)c2)c1</t>
+          <t>NC(=O)c1cn(-c2ccc3c(c2)CCC3)c2nc(Nc3cccc(C(=O)N4CCCCC4)c3)ncc2c1=O</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -915,25 +915,25 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>366.85</v>
+        <v>508.58</v>
       </c>
       <c r="H7" t="n">
         <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J7" t="n">
         <v>5</v>
       </c>
       <c r="K7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M7" t="n">
-        <v>66.91</v>
+        <v>123.21</v>
       </c>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
@@ -944,7 +944,7 @@
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97FC30&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7EE397A00&gt;</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
@@ -956,7 +956,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CHEMBL521887</t>
+          <t>CHEMBL1172346</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -964,12 +964,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Cc1ccc(NC(=O)c2ccc(CN3CCN(C)CC3)cc2)cc1-c1ccc2ccncc2c1</t>
+          <t>N#Cc1c[nH]c(C(=O)Nc2ccc(-c3ccncc3)cc2C2=CCCCC2)n1</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Cc1ccc(NC(=O)c2ccc(CN3CCN(C)CC3)cc2)cc1-c1ccc2ccncc2c1</t>
+          <t>N#Cc1c[nH]c(C(=O)Nc2ccc(-c3ccncc3)cc2C2=CCCCC2)n1</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -983,25 +983,25 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>450.59</v>
+        <v>369.43</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
         <v>4</v>
       </c>
       <c r="J8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M8" t="n">
-        <v>48.47</v>
+        <v>94.45999999999999</v>
       </c>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97C9E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7EE397A70&gt;</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CHEMBL402908</t>
+          <t>CHEMBL271461</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1032,12 +1032,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CC1CCN(c2cc(C#CCN3CCOCC3)ccc2NC(=O)c2ccc(C#N)o2)CC1</t>
+          <t>NC(=O)c1cn(-c2ccc3c(c2)CCC3)c2nc(Nc3ccc(N4CCNCC4)cc3)ncc2c1=O</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>CC1CCN(c2cc(C#CCN3CCOCC3)ccc2NC(=O)c2ccc(C#N)o2)CC1</t>
+          <t>NC(=O)c1cn(-c2ccc3c(c2)CCC3)c2nc(Nc3ccc(N4CCNCC4)cc3)ncc2c1=O</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>432.52</v>
+        <v>481.56</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I9" t="n">
+        <v>7</v>
+      </c>
+      <c r="J9" t="n">
+        <v>5</v>
+      </c>
+      <c r="K9" t="n">
         <v>6</v>
       </c>
-      <c r="J9" t="n">
-        <v>4</v>
-      </c>
-      <c r="K9" t="n">
-        <v>4</v>
-      </c>
       <c r="L9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M9" t="n">
-        <v>81.73999999999999</v>
+        <v>118.17</v>
       </c>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
@@ -1080,7 +1080,7 @@
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97CBA0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7EE397AE0&gt;</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
@@ -1092,7 +1092,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CHEMBL258709</t>
+          <t>CHEMBL481231</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1100,12 +1100,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CC1CCN(c2cc(-c3ccncc3)ccc2NC(=O)c2ccc(C#N)o2)CC1</t>
+          <t>COc1cc2c(Nc3ccc(F)c(Cl)c3)c(C(N)=O)cnc2cc1OCCCN1CCN(C)CC1</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>CC1CCN(c2cc(-c3ccncc3)ccc2NC(=O)c2ccc(C#N)o2)CC1</t>
+          <t>COc1cc2c(Nc3ccc(F)c(Cl)c3)c(C(N)=O)cnc2cc1OCCCN1CCN(C)CC1</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1119,16 +1119,16 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>386.46</v>
+        <v>501.99</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J10" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="K10" t="n">
         <v>4</v>
@@ -1137,7 +1137,7 @@
         <v>3</v>
       </c>
       <c r="M10" t="n">
-        <v>82.16</v>
+        <v>92.95</v>
       </c>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
@@ -1148,7 +1148,7 @@
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97CEB0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7EE397D10&gt;</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
@@ -1160,7 +1160,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CHEMBL1172117</t>
+          <t>CHEMBL273193</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1168,12 +1168,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>N#Cc1c[nH]c(C(=O)Nc2ccc(-c3ccccn3)cc2C2=CCCCC2)n1</t>
+          <t>NC(=O)c1cn(-c2ccc3c(c2)CCC3)c2nc(Nc3ccc(C[C@H]4COC(=O)N4)cc3)ncc2c1=O</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>N#Cc1c[nH]c(C(=O)Nc2ccc(-c3ccccn3)cc2C2=CCCCC2)n1</t>
+          <t>NC(=O)c1cn(-c2ccc3c(c2)CCC3)c2nc(Nc3ccc(C[C@H]4COC(=O)N4)cc3)ncc2c1=O</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1187,25 +1187,25 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>369.43</v>
+        <v>496.53</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I11" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M11" t="n">
-        <v>94.45999999999999</v>
+        <v>141.23</v>
       </c>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
@@ -1216,7 +1216,7 @@
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97CF90&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7EE397F40&gt;</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
@@ -1228,7 +1228,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CHEMBL480646</t>
+          <t>CHEMBL1087280</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1236,12 +1236,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>COc1cc2ncc(C(N)=O)c(Nc3ccc(F)c(Cl)c3)c2cc1OCCN1CCCC1</t>
+          <t>COc1ccc(COc2ncc(Oc3nc(-c4cnn(C)c4)cnc3N)cc2OC)cc1</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>COc1cc2ncc(C(N)=O)c(Nc3ccc(F)c(Cl)c3)c2cc1OCCN1CCCC1</t>
+          <t>COc1ccc(COc2ncc(Oc3nc(-c4cnn(C)c4)cnc3N)cc2OC)cc1</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1255,13 +1255,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>458.92</v>
+        <v>434.46</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J12" t="n">
         <v>8</v>
@@ -1270,10 +1270,10 @@
         <v>4</v>
       </c>
       <c r="L12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M12" t="n">
-        <v>89.70999999999999</v>
+        <v>119.43</v>
       </c>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
@@ -1284,7 +1284,7 @@
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97D150&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7EE394D60&gt;</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
@@ -1296,7 +1296,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CHEMBL249957</t>
+          <t>CHEMBL480646</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1304,12 +1304,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>N#Cc1ccc(C(=O)Nc2cc(N3CCCCC3)ccc2N2CCCCC2)o1</t>
+          <t>COc1cc2ncc(C(N)=O)c(Nc3ccc(F)c(Cl)c3)c2cc1OCCN1CCCC1</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>N#Cc1ccc(C(=O)Nc2cc(N3CCCCC3)ccc2N2CCCCC2)o1</t>
+          <t>COc1cc2ncc(C(N)=O)c(Nc3ccc(F)c(Cl)c3)c2cc1OCCN1CCCC1</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1323,25 +1323,25 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>378.48</v>
+        <v>458.92</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J13" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K13" t="n">
         <v>4</v>
       </c>
       <c r="L13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M13" t="n">
-        <v>72.51000000000001</v>
+        <v>89.70999999999999</v>
       </c>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
@@ -1352,7 +1352,7 @@
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97D9A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7EE396500&gt;</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
@@ -1364,7 +1364,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CHEMBL253026</t>
+          <t>CHEMBL249169</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1372,12 +1372,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Cc1cnn(-c2ccc(NC(=O)c3ccc(C#N)o3)c(N3CCCCC3)c2)c1</t>
+          <t>NC(=O)c1cnc2cc(-c3ccncc3)ccc2c1Nc1ccccc1</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Cc1cnn(-c2ccc(NC(=O)c3ccc(C#N)o3)c(N3CCCCC3)c2)c1</t>
+          <t>NC(=O)c1cnc2cc(-c3ccncc3)ccc2c1Nc1ccccc1</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1391,13 +1391,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>375.43</v>
+        <v>340.39</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J14" t="n">
         <v>4</v>
@@ -1406,10 +1406,10 @@
         <v>4</v>
       </c>
       <c r="L14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M14" t="n">
-        <v>87.09</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
@@ -1420,7 +1420,7 @@
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97DA10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7EE396B20&gt;</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
@@ -1432,7 +1432,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CHEMBL1087662</t>
+          <t>CHEMBL258474</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1440,12 +1440,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>COc1ccc(COc2cnc(COc3nc(-c4cnn(C)c4)cnc3N)cc2OC)cc1</t>
+          <t>Cc1ccccc1-c1cc(N2CCN(C)CC2)ccc1NC(=O)c1ccc(C#N)o1</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>COc1ccc(COc2cnc(COc3nc(-c4cnn(C)c4)cnc3N)cc2OC)cc1</t>
+          <t>Cc1ccccc1-c1cc(N2CCN(C)CC2)ccc1NC(=O)c1ccc(C#N)o1</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1459,25 +1459,25 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>448.48</v>
+        <v>400.48</v>
       </c>
       <c r="H15" t="n">
         <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J15" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="K15" t="n">
         <v>4</v>
       </c>
       <c r="L15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M15" t="n">
-        <v>119.43</v>
+        <v>72.51000000000001</v>
       </c>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
@@ -1488,7 +1488,7 @@
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97DB60&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7EE396B90&gt;</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
@@ -1500,7 +1500,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CHEMBL271259</t>
+          <t>CHEMBL522834</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1508,12 +1508,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Cc1cc(-c2c(-c3ccccc3)c3cc(Cl)ncc3[nH]c2=O)on1</t>
+          <t>CONC(=O)c1cn(-c2ccc3c(c2)CCC3)c2nc(Nc3ccc(CCN4CCOCC4)cc3)ncc2c1=O</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Cc1cc(-c2c(-c3ccccc3)c3cc(Cl)ncc3[nH]c2=O)on1</t>
+          <t>CONC(=O)c1cn(-c2ccc3c(c2)CCC3)c2nc(Nc3ccc(CCN4CCOCC4)cc3)ncc2c1=O</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1523,29 +1523,29 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>337.77</v>
+        <v>540.62</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J16" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K16" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L16" t="n">
         <v>4</v>
       </c>
       <c r="M16" t="n">
-        <v>71.78</v>
+        <v>110.61</v>
       </c>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
@@ -1556,7 +1556,7 @@
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97DBD0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7EE3975A0&gt;</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
@@ -1568,7 +1568,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CHEMBL257865</t>
+          <t>CHEMBL523802</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1576,12 +1576,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CN1CCN(c2ccc(Nc3ncc4c(=O)c(C(N)=O)cn(-c5ccccc5)c4n3)cc2)CC1</t>
+          <t>CCCCNc1ncc2c(=O)c(C(=O)NOC)cn(-c3ccc4c(c3)CCC4)c2n1</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>CN1CCN(c2ccc(Nc3ncc4c(=O)c(C(N)=O)cn(-c5ccccc5)c4n3)cc2)CC1</t>
+          <t>CCCCNc1ncc2c(=O)c(C(=O)NOC)cn(-c3ccc4c(c3)CCC4)c2n1</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1591,29 +1591,29 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>455.52</v>
+        <v>407.47</v>
       </c>
       <c r="H17" t="n">
         <v>2</v>
       </c>
       <c r="I17" t="n">
+        <v>6</v>
+      </c>
+      <c r="J17" t="n">
         <v>7</v>
       </c>
-      <c r="J17" t="n">
-        <v>5</v>
-      </c>
       <c r="K17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M17" t="n">
-        <v>109.38</v>
+        <v>98.14</v>
       </c>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
@@ -1624,7 +1624,7 @@
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97E260&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7EE396C00&gt;</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
@@ -1636,7 +1636,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CHEMBL522834</t>
+          <t>CHEMBL250161</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1644,12 +1644,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CONC(=O)c1cn(-c2ccc3c(c2)CCC3)c2nc(Nc3ccc(CCN4CCOCC4)cc3)ncc2c1=O</t>
+          <t>NC(=O)c1cnc2cc(-c3ccc(C(=O)N4CCCCC4)cc3)ccc2c1Nc1ccccc1</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>CONC(=O)c1cn(-c2ccc3c(c2)CCC3)c2nc(Nc3ccc(CCN4CCOCC4)cc3)ncc2c1=O</t>
+          <t>NC(=O)c1cnc2cc(-c3ccc(C(=O)N4CCCCC4)cc3)ccc2c1Nc1ccccc1</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1663,25 +1663,25 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>540.62</v>
+        <v>450.54</v>
       </c>
       <c r="H18" t="n">
         <v>2</v>
       </c>
       <c r="I18" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J18" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L18" t="n">
         <v>4</v>
       </c>
       <c r="M18" t="n">
-        <v>110.61</v>
+        <v>88.31999999999999</v>
       </c>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
@@ -1692,7 +1692,7 @@
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97E2D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7EE396C70&gt;</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
@@ -1704,7 +1704,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CHEMBL249138</t>
+          <t>CHEMBL265432</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1712,12 +1712,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>NC(=O)c1cnc2cc(-c3ccc(C(=O)C4CCCC4)cc3)ccc2c1Nc1ccccc1</t>
+          <t>CN1CCN(c2ccc(NC(=O)c3ccc(C#N)o3)c(C3=CCCCC3)c2)CC1</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NC(=O)c1cnc2cc(-c3ccc(C(=O)C4CCCC4)cc3)ccc2c1Nc1ccccc1</t>
+          <t>CN1CCN(c2ccc(NC(=O)c3ccc(C#N)o3)c(C3=CCCCC3)c2)CC1</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1731,25 +1731,25 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>435.53</v>
+        <v>390.49</v>
       </c>
       <c r="H19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>5</v>
+      </c>
+      <c r="J19" t="n">
+        <v>4</v>
+      </c>
+      <c r="K19" t="n">
+        <v>4</v>
+      </c>
+      <c r="L19" t="n">
         <v>2</v>
       </c>
-      <c r="I19" t="n">
-        <v>4</v>
-      </c>
-      <c r="J19" t="n">
-        <v>6</v>
-      </c>
-      <c r="K19" t="n">
-        <v>5</v>
-      </c>
-      <c r="L19" t="n">
-        <v>4</v>
-      </c>
       <c r="M19" t="n">
-        <v>85.08</v>
+        <v>72.51000000000001</v>
       </c>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
@@ -1760,7 +1760,7 @@
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97D850&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7EE397680&gt;</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
@@ -1828,7 +1828,7 @@
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B97C4A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7EE397ED0&gt;</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
@@ -1840,7 +1840,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>C19732504</t>
+          <t>C57719953</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1848,12 +1848,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Cn1nc(C(=O)N2CCCCC2)c2c1CC[C@@H]([NH2+]CC(C)(C)C[NH+](C)C)C2</t>
+          <t>O[C@@H](Cc1ccc(Br)cc1)C[NH+]1CCC2(CC1)Nc1ccccc1-n1cccc12</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Cn1nc(C(=O)N2CCCCC2)c2c1CC[C@@H]([NH2+]CC(C)(C)C[NH+](C)C)C2</t>
+          <t>O[C@@H](Cc1ccc(Br)cc1)C[NH+]1CCC2(CC1)Nc1ccccc1-n1cccc12</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1867,25 +1867,25 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>377.58</v>
+        <v>453.4</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I21" t="n">
         <v>2</v>
       </c>
       <c r="J21" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M21" t="n">
-        <v>59.18</v>
+        <v>41.63</v>
       </c>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
@@ -1896,7 +1896,7 @@
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B8A3DF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7EE364660&gt;</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
@@ -1908,7 +1908,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>C36969402</t>
+          <t>C12373501</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1916,12 +1916,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>C[C@@H]1Oc2ccc(N[C@@H](C)c3ccc(Cl)s3)cc2NC1=O</t>
+          <t>Cc1c([C@@H](C)[NH2+]Cc2ccc(C#CC(C)(C)O)s2)cnn1-c1cccc(F)c1</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>C[C@@H]1Oc2ccc(N[C@@H](C)c3ccc(Cl)s3)cc2NC1=O</t>
+          <t>Cc1c([C@@H](C)[NH2+]Cc2ccc(C#CC(C)(C)O)s2)cnn1-c1cccc(F)c1</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1935,25 +1935,25 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>322.82</v>
+        <v>398.53</v>
       </c>
       <c r="H22" t="n">
         <v>2</v>
       </c>
       <c r="I22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K22" t="n">
         <v>3</v>
       </c>
       <c r="L22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M22" t="n">
-        <v>50.36</v>
+        <v>54.66</v>
       </c>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
@@ -1964,7 +1964,7 @@
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B8A3D80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7EE364C80&gt;</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
@@ -1976,7 +1976,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>C37353021</t>
+          <t>C32592817</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1984,12 +1984,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Cc1nc(N)c2c(C)c(C)n(-c3ccc(Cl)cc3Cl)c2n1</t>
+          <t>CN(Cc1n[nH]c2c1CCCCC2)c1ncccn1</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Cc1nc(N)c2c(C)c(C)n(-c3ccc(Cl)cc3Cl)c2n1</t>
+          <t>CN(Cc1n[nH]c2c1CCCCC2)c1ncccn1</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -2003,25 +2003,25 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>321.21</v>
+        <v>257.34</v>
       </c>
       <c r="H23" t="n">
         <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K23" t="n">
         <v>3</v>
       </c>
       <c r="L23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M23" t="n">
-        <v>56.73</v>
+        <v>57.7</v>
       </c>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
@@ -2032,7 +2032,7 @@
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B8A11C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7EE364F90&gt;</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
@@ -2044,7 +2044,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>C41301550</t>
+          <t>C37353021</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -2052,12 +2052,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>CC(C)CCNc1nc(N)c([N+](=O)[O-])c(Nc2onc3c2C[C@@H](C)CC3)n1</t>
+          <t>Cc1nc(N)c2c(C)c(C)n(-c3ccc(Cl)cc3Cl)c2n1</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>CC(C)CCNc1nc(N)c([N+](=O)[O-])c(Nc2onc3c2C[C@@H](C)CC3)n1</t>
+          <t>Cc1nc(N)c2c(C)c(C)n(-c3ccc(Cl)cc3Cl)c2n1</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2071,25 +2071,25 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>375.43</v>
+        <v>321.21</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J24" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K24" t="n">
         <v>3</v>
       </c>
       <c r="L24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M24" t="n">
-        <v>145.03</v>
+        <v>56.73</v>
       </c>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
@@ -2100,7 +2100,7 @@
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B8A1460&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7EE3661F0&gt;</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
@@ -2112,7 +2112,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>C18199745</t>
+          <t>C13500763</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -2120,12 +2120,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>COc1cc([C@@H]2C3=C(C[C@@H](c4cccs4)CC3=O)Nc3nc(N)nn32)ccc1O</t>
+          <t>CCC[C@@H](c1nnnn1C(C)(C)C)[NH+](CCO)Cc1cc2cc(OCC)ccc2[nH]c1=O</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>COc1cc([C@@H]2C3=C(C[C@@H](c4cccs4)CC3=O)Nc3nc(N)nn32)ccc1O</t>
+          <t>CCC[C@@H](c1nnnn1C(C)(C)C)[NH+](CCO)Cc1cc2cc(OCC)ccc2[nH]c1=O</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2139,25 +2139,25 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>409.47</v>
+        <v>443.57</v>
       </c>
       <c r="H25" t="n">
         <v>3</v>
       </c>
       <c r="I25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J25" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="K25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L25" t="n">
         <v>3</v>
       </c>
       <c r="M25" t="n">
-        <v>115.29</v>
+        <v>110.36</v>
       </c>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
@@ -2168,7 +2168,7 @@
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B8A22D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7EE3659A0&gt;</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
@@ -2180,7 +2180,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>C15911984</t>
+          <t>C12661259</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -2188,12 +2188,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>CC1=N[C@@H]2N(C(=S)NC(=O)c3ccco3)N=C(NC(=O)c3ccco3)N2C(OC(=O)c2ccco2)=C1</t>
+          <t>C[C@]12CC[C@H](O)C[C@@H]1CC[C@@H]1[C@@H]2CC[C@]2(C)[C@H](NC(=O)C[NH+]3CCOCC3)CC[C@@H]12</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>CC1=N[C@@H]2N(C(=S)NC(=O)c3ccco3)N=C(NC(=O)c3ccco3)N2C(OC(=O)c2ccco2)=C1</t>
+          <t>C[C@]12CC[C@H](O)C[C@@H]1CC[C@@H]1[C@@H]2CC[C@@]2(C)[C@H]1CC[C@H]2NC(=O)C[NH+]1CCOCC1</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2207,25 +2207,25 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>508.47</v>
+        <v>419.63</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I26" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K26" t="n">
         <v>5</v>
       </c>
       <c r="L26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>155.12</v>
+        <v>63</v>
       </c>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
@@ -2236,7 +2236,7 @@
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B8A17E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7EE364510&gt;</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
@@ -2248,7 +2248,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>C65374437</t>
+          <t>C18199745</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -2256,12 +2256,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>O=C1C[C@@H](C2CCCC2)[C@H]2C(=NN=C2c2ccco2)N1</t>
+          <t>COc1cc([C@@H]2C3=C(C[C@@H](c4cccs4)CC3=O)Nc3nc(N)nn32)ccc1O</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>O=C1C[C@@H](C2CCCC2)[C@H]2C(=NN=C2c2ccco2)N1</t>
+          <t>COc1cc([C@@H]2C3=C(C[C@@H](c4cccs4)CC3=O)Nc3nc(N)nn32)ccc1O</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2275,25 +2275,25 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>271.32</v>
+        <v>409.47</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I27" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M27" t="n">
-        <v>66.95999999999999</v>
+        <v>115.29</v>
       </c>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
@@ -2304,7 +2304,7 @@
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B8A1BD0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7EE364DD0&gt;</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
@@ -2316,7 +2316,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>C35170788</t>
+          <t>C05705934</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -2324,12 +2324,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Cc1cccc(C)c1-n1nnnc1C1(N2CC[NH2+]CC2)C2CC3CC(C2)CC1C3</t>
+          <t>CC1(C)OC[C@@H]([C@@H]2O[C@H]3OC(C)(C)O[C@@H]3/C2=N/NC(=O)c2ccccc2)O1</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Cc1cccc(C)c1-n1nnnc1C1(N2CC[NH2+]CC2)C2CC3CC(C2)CC1C3</t>
+          <t>CC1(C)OC[C@@H]([C@@H]2O[C@H]3OC(C)(C)O[C@@H]3/C2=N/NC(=O)c2ccccc2)O1</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2343,25 +2343,25 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>393.56</v>
+        <v>376.41</v>
       </c>
       <c r="H28" t="n">
         <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J28" t="n">
         <v>3</v>
       </c>
       <c r="K28" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M28" t="n">
-        <v>63.45</v>
+        <v>87.61</v>
       </c>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
@@ -2372,7 +2372,7 @@
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B8A3CA0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7EE366570&gt;</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
@@ -2384,7 +2384,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>C01130626</t>
+          <t>C24496285</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -2392,12 +2392,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>COC(=O)c1c(NC(=O)c2oc3cc(C)c(C)cc3c2C)sc(C(C)=O)c1C</t>
+          <t>CC(C)(C)OC(=O)NC1(CNC(=O)c2cc3c([nH]c2=O)CCCC3=O)CCCCCC1</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>COC(=O)c1c(NC(=O)c2oc3cc(C)c(C)cc3c2C)sc(C(C)=O)c1C</t>
+          <t>CC(C)(C)OC(=O)NC1(CNC(=O)c2cc3c([nH]c2=O)CCCC3=O)CCCCCC1</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2411,10 +2411,10 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>399.47</v>
+        <v>431.53</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I29" t="n">
         <v>5</v>
@@ -2426,10 +2426,10 @@
         <v>3</v>
       </c>
       <c r="L29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M29" t="n">
-        <v>85.61</v>
+        <v>117.36</v>
       </c>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
@@ -2440,7 +2440,7 @@
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B8A0C10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7EE3642E0&gt;</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
@@ -2452,7 +2452,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>C04697835</t>
+          <t>C04486464</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -2460,12 +2460,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>C/C(=C/C(=O)Nc1cccc2c1CCCC2)NNC(=O)c1ccccc1O</t>
+          <t>O=C1c2cc(S(=O)(=O)/N=c3/cccc[nH]3)ccc2-c2ccc(S(=O)(=O)Nc3ccccn3)cc21</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>C/C(=C/C(=O)Nc1cccc2c1CCCC2)NNC(=O)c1ccccc1O</t>
+          <t>O=C1c2cc(S(=O)(=O)/N=c3/cccc[nH]3)ccc2-c2ccc(S(=O)(=O)Nc3ccccn3)cc21</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2479,25 +2479,25 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>365.43</v>
+        <v>492.54</v>
       </c>
       <c r="H30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I30" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J30" t="n">
         <v>5</v>
       </c>
       <c r="K30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M30" t="n">
-        <v>90.45999999999999</v>
+        <v>138.42</v>
       </c>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
@@ -2508,7 +2508,7 @@
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B8A3C30&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7EE3645F0&gt;</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
@@ -2520,7 +2520,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>C39941776</t>
+          <t>C36543609</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -2528,12 +2528,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>O=C(CNC(=O)c1cccc2ccccc12)N/N=C/[C@H]1C=c2ccccc2=[NH+]C1=O</t>
+          <t>O=C(N[C@H](Cc1c[nH]c2ccccc12)C(=O)NCc1ccco1)[C@H]1Cc2ccccc2CN1</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>O=C(CNC(=O)c1cccc2ccccc12)N/N=C/[C@H]1C=c2ccccc2=[NH+]C1=O</t>
+          <t>O=C(N[C@H](Cc1c[nH]c2ccccc12)C(=O)NCc1ccco1)[C@H]1Cc2ccccc2CN1</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2547,25 +2547,25 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>399.43</v>
+        <v>442.52</v>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J31" t="n">
+        <v>7</v>
+      </c>
+      <c r="K31" t="n">
         <v>5</v>
       </c>
-      <c r="K31" t="n">
-        <v>4</v>
-      </c>
       <c r="L31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M31" t="n">
-        <v>101.6</v>
+        <v>99.16</v>
       </c>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
@@ -2576,7 +2576,7 @@
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B8A03C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7EE3650E0&gt;</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
@@ -2588,7 +2588,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>C24991228</t>
+          <t>C21882423</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -2596,12 +2596,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>O=C(C[C@H]1NC(=O)N(C[C@@H](O)COc2cc(Cl)ccc2Cl)C1=O)N1CCOCC1</t>
+          <t>C[C@@H]1CCc2c(sc3nc(CCC(=O)NCCc4ccc(Cl)cc4)[nH]c(=O)c23)C1</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>O=C(C[C@H]1NC(=O)N(C[C@@H](O)COc2cc(Cl)ccc2Cl)C1=O)N1CCOCC1</t>
+          <t>C[C@@H]1CCc2c(sc3nc(CCC(=O)NCCc4ccc(Cl)cc4)[nH]c(=O)c23)C1</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2615,25 +2615,25 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>446.29</v>
+        <v>429.97</v>
       </c>
       <c r="H32" t="n">
         <v>2</v>
       </c>
       <c r="I32" t="n">
+        <v>3</v>
+      </c>
+      <c r="J32" t="n">
         <v>6</v>
       </c>
-      <c r="J32" t="n">
-        <v>7</v>
-      </c>
       <c r="K32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M32" t="n">
-        <v>108.41</v>
+        <v>74.84999999999999</v>
       </c>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
@@ -2644,7 +2644,7 @@
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B8A1540&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7EE3655B0&gt;</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
@@ -2656,7 +2656,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>C05464877</t>
+          <t>C39449879</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -2664,12 +2664,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>CC1(C)CC(NC(=O)CCC(=O)N2C(C)(C)CC([NH3+])CC2(C)C)CC(C)(C)[NH2+]1</t>
+          <t>CS[C@@H]1CC(=O)c2c(c3ncc(F)cc3c(=O)n2-c2ccccc2[O-])N1</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>CC1(C)CC(NC(=O)CCC(=O)N2C(C)(C)CC([NH3+])CC2(C)C)CC(C)(C)[NH2+]1</t>
+          <t>CS[C@@H]1CC(=O)c2c(c3ncc(F)cc3c(=O)n2-c2ccccc2[O-])N1</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2683,25 +2683,25 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>396.62</v>
+        <v>370.39</v>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
+        <v>6</v>
+      </c>
+      <c r="J33" t="n">
         <v>2</v>
       </c>
-      <c r="J33" t="n">
-        <v>4</v>
-      </c>
       <c r="K33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M33" t="n">
-        <v>93.66</v>
+        <v>87.05</v>
       </c>
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
@@ -2712,7 +2712,7 @@
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B8A3D10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7EE366030&gt;</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
@@ -2724,7 +2724,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>C26919716</t>
+          <t>C65374437</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -2732,12 +2732,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>CCCNS(=O)(=O)c1ccc2nc([N-]S(=O)(=O)c3ccc(Br)cc3)sc2c1</t>
+          <t>O=C1C[C@@H](C2CCCC2)[C@H]2C(=NN=C2c2ccco2)N1</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>CCCNS(=O)(=O)c1ccc2nc([N-]S(=O)(=O)c3ccc(Br)cc3)sc2c1</t>
+          <t>O=C1C[C@@H](C2CCCC2)[C@H]2C(=NN=C2c2ccco2)N1</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2751,25 +2751,25 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>489.42</v>
+        <v>271.32</v>
       </c>
       <c r="H34" t="n">
         <v>1</v>
       </c>
       <c r="I34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J34" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L34" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M34" t="n">
-        <v>107.3</v>
+        <v>66.95999999999999</v>
       </c>
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
@@ -2780,7 +2780,7 @@
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B8A2B90&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7EE367140&gt;</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
@@ -2792,7 +2792,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>C52569910</t>
+          <t>C37176224</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -2800,12 +2800,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Cc1n[nH]c2ccc(-c3cc(OC[C@@H]([NH3+])CC4=c5ccc(F)cc5=[NH+]C4)cnc3-c3ccoc3)cc12</t>
+          <t>C[C@H]1Cc2cc([C@H]([NH3+])c3cc(F)cc(Br)c3)ccc2O1</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Cc1n[nH]c2ccc(-c3cc(OC[C@@H]([NH3+])CC4=c5ccc(F)cc5=[NH+]C4)cnc3-c3ccoc3)cc12</t>
+          <t>C[C@H]1Cc2cc([C@H]([NH3+])c3cc(F)cc(Br)c3)ccc2O1</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2819,25 +2819,25 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>483.55</v>
+        <v>337.21</v>
       </c>
       <c r="H35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K35" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M35" t="n">
-        <v>105.55</v>
+        <v>36.87</v>
       </c>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
@@ -2848,7 +2848,7 @@
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B8A3300&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7EE3671B0&gt;</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
@@ -2860,7 +2860,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>C26845392</t>
+          <t>C01130626</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -2868,12 +2868,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>O=C1N[C@@H](c2ccc(Br)cc2)Nc2c1sc1[nH+]c3c(cc21)CCCC3</t>
+          <t>COC(=O)c1c(NC(=O)c2oc3cc(C)c(C)cc3c2C)sc(C(C)=O)c1C</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>O=C1N[C@@H](c2ccc(Br)cc2)Nc2c1sc1[nH+]c3c(cc21)CCCC3</t>
+          <t>COC(=O)c1c(NC(=O)c2oc3cc(C)c(C)cc3c2C)sc(C(C)=O)c1C</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2887,25 +2887,25 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>415.34</v>
+        <v>399.47</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J36" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L36" t="n">
         <v>3</v>
       </c>
       <c r="M36" t="n">
-        <v>55.27</v>
+        <v>85.61</v>
       </c>
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
@@ -2916,7 +2916,7 @@
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B8A3450&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7EE366420&gt;</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
@@ -2928,7 +2928,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>C08187989</t>
+          <t>C04734687</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -2936,12 +2936,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CNC(=O)CN1C(=O)NC(c2ccc(C)cc2)(c2ccc(C)cc2)C1=O</t>
+          <t>Cn1c(-c2ccccc2)c([C@@H]2c3ccccc3C(=O)N2CC(N)=O)c2ccccc21</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>CNC(=O)CN1C(=O)NC(c2ccc(C)cc2)(c2ccc(C)cc2)C1=O</t>
+          <t>Cn1c(-c2ccccc2)c([C@@H]2c3ccccc3C(=O)N2CC(N)=O)c2ccccc21</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2951,29 +2951,29 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>351.41</v>
+        <v>395.46</v>
       </c>
       <c r="H37" t="n">
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
         <v>2</v>
       </c>
-      <c r="I37" t="n">
-        <v>3</v>
-      </c>
       <c r="J37" t="n">
         <v>4</v>
       </c>
       <c r="K37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M37" t="n">
-        <v>78.51000000000001</v>
+        <v>68.33</v>
       </c>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
@@ -2984,7 +2984,7 @@
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B8A2A40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7EE365690&gt;</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
@@ -2996,7 +2996,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>C59170859</t>
+          <t>C49570370</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -3004,12 +3004,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>CCOc1cc(Br)cc2cc(C(N)=S)/c(=[NH+]/c3cc(C)ccc3C)oc12</t>
+          <t>Cc1cc(C)c(C(N)=S)c(N[C@H]2CC[NH+]3CCCC[C@H]23)n1</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>CCOc1cc(Br)cc2cc(C(N)=S)/c(=[NH+]/c3cc(C)ccc3C)oc12</t>
+          <t>Cc1cc(C)c(C(N)=S)c(N[C@H]2CC[NH+]3CCCC[C@H]23)n1</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -3019,29 +3019,29 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>432.36</v>
+        <v>305.47</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I38" t="n">
         <v>4</v>
       </c>
       <c r="J38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K38" t="n">
         <v>3</v>
       </c>
       <c r="L38" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M38" t="n">
-        <v>62.36</v>
+        <v>55.38</v>
       </c>
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
@@ -3052,7 +3052,7 @@
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B8A2180&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7EE3657E0&gt;</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
@@ -3064,7 +3064,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>C38792984</t>
+          <t>C53125910</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -3072,12 +3072,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>O=C(/[NH+]=C1\C=CC2=NC([O-])=NC2=C1)C1(Cc2nc3ccccc3s2)CCCC1</t>
+          <t>C[C@@H]1CCC[C@@](CO)([NH2+]C[C@H](O)c2ccccc2Cl)C1</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>O=C(/[NH+]=C1\C=CC2=NC([O-])=NC2=C1)C1(Cc2nc3ccccc3s2)CCCC1</t>
+          <t>C[C@@H]1CCC[C@@](CO)([NH2+]C[C@H](O)c2ccccc2Cl)C1</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -3087,29 +3087,29 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>390.47</v>
+        <v>298.83</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M39" t="n">
-        <v>91.70999999999999</v>
+        <v>57.07</v>
       </c>
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
@@ -3120,7 +3120,7 @@
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B8A1AF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7EE364900&gt;</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
@@ -3132,7 +3132,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>C13959458</t>
+          <t>C07203973</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -3140,12 +3140,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>O=C(Nc1nc(-c2ccc(OC(F)F)cc2)cs1)c1nn(C23CC4CC(CC(C4)C2)C3)cc1[N+](=O)[O-]</t>
+          <t>C[C@H](OC(=O)c1cc(Br)ccc1N)C(=O)NC(=O)NC1CCCC1</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>O=C(Nc1nc(-c2ccc(OC(F)F)cc2)cs1)c1nn(C23CC4CC(CC(C4)C2)C3)cc1[N+](=O)[O-]</t>
+          <t>C[C@H](OC(=O)c1cc(Br)ccc1N)C(=O)NC(=O)NC1CCCC1</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -3155,29 +3155,29 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>515.54</v>
+        <v>398.26</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I40" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J40" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K40" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L40" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M40" t="n">
-        <v>112.18</v>
+        <v>110.52</v>
       </c>
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr"/>
@@ -3188,7 +3188,7 @@
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B8A0E40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7EE364A50&gt;</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
@@ -3200,7 +3200,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>CHEMBL3629013</t>
+          <t>C22513657</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -3208,12 +3208,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>N#Cc1ccnc(Nc2cc(C3CCN(C4COC4)CC3)n(C3CCCC3)n2)c1</t>
+          <t>O=C(CSc1nn(-c2ccccc2)c(=S)s1)NNC(=O)c1cccc([N+](=O)[O-])c1</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>N#Cc1ccnc(Nc2cc(C3CCN(C4COC4)CC3)n(C3CCCC3)n2)c1</t>
+          <t>O=C(CSc1nn(-c2ccccc2)c(=S)s1)NNC(=O)c1cccc([N+](=O)[O-])c1</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -3223,66 +3223,40 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>392.51</v>
+        <v>447.52</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I41" t="n">
+        <v>7</v>
+      </c>
+      <c r="J41" t="n">
         <v>6</v>
       </c>
-      <c r="J41" t="n">
-        <v>5</v>
-      </c>
       <c r="K41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M41" t="n">
-        <v>79</v>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P41" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q41" t="n">
-        <v>57000</v>
-      </c>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>CHEMBL3631839</t>
-        </is>
-      </c>
-      <c r="S41" t="inlineStr">
-        <is>
-          <t>Inhibition of CSF1R (unknown origin) by FRET method</t>
-        </is>
-      </c>
-      <c r="T41" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>119.16</v>
+      </c>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr"/>
+      <c r="S41" t="inlineStr"/>
+      <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B8A2030&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7EE367E60&gt;</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
@@ -3294,7 +3268,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>CHEMBL2152768</t>
+          <t>C24991228</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -3302,12 +3276,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>CC(C)(O)C1CCN(Cc2ccc3nc(-c4c(F)ccc5[nH]ccc45)nc(N4CCOCC4)c3n2)CC1</t>
+          <t>O=C(C[C@H]1NC(=O)N(C[C@@H](O)COc2cc(Cl)ccc2Cl)C1=O)N1CCOCC1</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>CC(C)(O)C1CCN(Cc2ccc3nc(-c4c(F)ccc5[nH]ccc45)nc(N4CCOCC4)c3n2)CC1</t>
+          <t>O=C(C[C@H]1NC(=O)N(C[C@@H](O)COc2cc(Cl)ccc2Cl)C1=O)N1CCOCC1</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -3317,66 +3291,40 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>504.61</v>
+        <v>446.29</v>
       </c>
       <c r="H42" t="n">
         <v>2</v>
       </c>
       <c r="I42" t="n">
+        <v>6</v>
+      </c>
+      <c r="J42" t="n">
         <v>7</v>
       </c>
-      <c r="J42" t="n">
-        <v>5</v>
-      </c>
       <c r="K42" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L42" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M42" t="n">
-        <v>90.40000000000001</v>
-      </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P42" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q42" t="n">
-        <v>-3.3</v>
-      </c>
-      <c r="R42" t="inlineStr">
-        <is>
-          <t>CHEMBL2156514</t>
-        </is>
-      </c>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t>Inhibition of CSF1R at 1 uM</t>
-        </is>
-      </c>
-      <c r="T42" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>108.41</v>
+      </c>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr"/>
+      <c r="S42" t="inlineStr"/>
+      <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B8A25E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7EE367F40&gt;</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
@@ -3388,7 +3336,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>CHEMBL4278763</t>
+          <t>C15004701</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -3396,12 +3344,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>NC1(c2ccc(-c3cnc4c(-c5ccc(S(N)(=O)=O)c6ccccc56)cnn4c3)cc2)CCC1</t>
+          <t>Cc1ccc2c(C)nc(N3CCC[C@@H]([NH2+]C[C@@H]4CCS(=O)(=O)C4)CC3)nc2c1</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>NC1(c2ccc(-c3cnc4c(-c5ccc(S(N)(=O)=O)c6ccccc56)cnn4c3)cc2)CCC1</t>
+          <t>Cc1ccc2c(C)nc(N3CCC[C@@H]([NH2+]C[C@@H]4CCS(=O)(=O)C4)CC3)nc2c1</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -3411,14 +3359,14 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>469.57</v>
+        <v>403.57</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>5</v>
@@ -3427,50 +3375,24 @@
         <v>4</v>
       </c>
       <c r="K43" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M43" t="n">
-        <v>116.37</v>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P43" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q43" t="n">
-        <v>10</v>
-      </c>
-      <c r="R43" t="inlineStr">
-        <is>
-          <t>CHEMBL4263811</t>
-        </is>
-      </c>
-      <c r="S43" t="inlineStr">
-        <is>
-          <t>Inhibition of FMS (unknown origin) at 1 uM relative to control</t>
-        </is>
-      </c>
-      <c r="T43" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>79.77</v>
+      </c>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr"/>
+      <c r="S43" t="inlineStr"/>
+      <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B8A2DC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7EE365770&gt;</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
@@ -3482,7 +3404,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>CHEMBL583042</t>
+          <t>C02433709</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -3490,12 +3412,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Cc1cnc(Nc2ccc(F)cc2Cl)nc1-c1c[nH]c(C(=O)N[C@H](CO)c2cccc(Cl)c2)c1</t>
+          <t>CCN(CCO)c1ncnc2c1sc1[nH+]c(N3CCOCC3)c3c(c12)CCC3</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Cc1cnc(Nc2ccc(F)cc2Cl)nc1-c1c[nH]c(C(=O)N[C@H](CO)c2cccc(Cl)c2)c1</t>
+          <t>CCN(CCO)c1ncnc2c1sc1[nH+]c(N3CCOCC3)c3c(c12)CCC3</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -3505,66 +3427,40 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>500.36</v>
+        <v>400.53</v>
       </c>
       <c r="H44" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
+        <v>6</v>
+      </c>
+      <c r="J44" t="n">
         <v>5</v>
       </c>
-      <c r="J44" t="n">
-        <v>7</v>
-      </c>
       <c r="K44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M44" t="n">
-        <v>102.93</v>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P44" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q44" t="n">
-        <v>6</v>
-      </c>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t>CHEMBL1041364</t>
-        </is>
-      </c>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t>Inhibition of FMS at 1 uM</t>
-        </is>
-      </c>
-      <c r="T44" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>75.86</v>
+      </c>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr"/>
+      <c r="S44" t="inlineStr"/>
+      <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B8A3BC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7EE364270&gt;</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
@@ -3576,7 +3472,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>CHEMBL1794071</t>
+          <t>C13626344</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -3584,12 +3480,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>ON=C1CCc2cc(-c3nc(C4CCNCC4)[nH]c3-c3ccncc3)ccc21</t>
+          <t>O=C([O-])CCC(=O)N1N=C(c2cc3ccccc3o2)C[C@@]12C(=O)Nc1ccccc12</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>ON=C1CCc2cc(-c3nc(C4CCNCC4)[nH]c3-c3ccncc3)ccc21</t>
+          <t>O=C([O-])CCC(=O)N1N=C(c2cc3ccccc3o2)C[C@@]12C(=O)Nc1ccccc12</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -3599,20 +3495,20 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>373.46</v>
+        <v>402.39</v>
       </c>
       <c r="H45" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K45" t="n">
         <v>5</v>
@@ -3621,44 +3517,18 @@
         <v>3</v>
       </c>
       <c r="M45" t="n">
-        <v>86.19</v>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P45" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q45" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="R45" t="inlineStr">
-        <is>
-          <t>CHEMBL1962102</t>
-        </is>
-      </c>
-      <c r="S45" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: FMS mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T45" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>115.04</v>
+      </c>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr"/>
+      <c r="S45" t="inlineStr"/>
+      <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B8A2650&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7EE3666C0&gt;</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
@@ -3670,7 +3540,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>CHEMBL1909380</t>
+          <t>C26845392</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -3678,12 +3548,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>COc1cc2ncnc(Nc3ccc4c(cnn4Cc4ccccc4)c3)c2cc1OC</t>
+          <t>O=C1N[C@@H](c2ccc(Br)cc2)Nc2c1sc1[nH+]c3c(cc21)CCCC3</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>COc1cc2ncnc(Nc3ccc4c(cnn4Cc4ccccc4)c3)c2cc1OC</t>
+          <t>O=C1N[C@@H](c2ccc(Br)cc2)Nc2c1sc1[nH+]c3c(cc21)CCCC3</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -3693,66 +3563,40 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>411.47</v>
+        <v>415.34</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I46" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J46" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K46" t="n">
         <v>5</v>
       </c>
       <c r="L46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M46" t="n">
-        <v>74.09</v>
-      </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P46" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q46" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="R46" t="inlineStr">
-        <is>
-          <t>CHEMBL1962102</t>
-        </is>
-      </c>
-      <c r="S46" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: FMS mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T46" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>55.27</v>
+      </c>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr"/>
+      <c r="S46" t="inlineStr"/>
+      <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B8A0660&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7EE367760&gt;</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
@@ -3764,7 +3608,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>CHEMBL230597</t>
+          <t>C43736751</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -3772,12 +3616,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>CS(=O)(=O)Nc1ccc(-c2cc(-c3ccccc3)cc(C(N)=O)c2N)cc1</t>
+          <t>COC(=O)[C@H](Cc1c[nH]cn1)NC(=O)CO/N=C1\C=C2CC[C@H]3[C@@H](CC[C@@]4(C)[C@H](C(C)=O)CC[C@@H]34)[C@]2(C)CC1</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>CS(=O)(=O)Nc1ccc(-c2cc(-c3ccccc3)cc(C(N)=O)c2N)cc1</t>
+          <t>COC(=O)[C@H](Cc1c[nH]cn1)NC(=O)CO/N=C1\C=C2CC[C@@H]3[C@@H]4CC[C@@H](C(C)=O)[C@]4(C)CC[C@H]3[C@]2(C)CC1</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -3787,66 +3631,40 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>381.46</v>
+        <v>538.6900000000001</v>
       </c>
       <c r="H47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I47" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J47" t="n">
+        <v>8</v>
+      </c>
+      <c r="K47" t="n">
         <v>5</v>
       </c>
-      <c r="K47" t="n">
-        <v>3</v>
-      </c>
       <c r="L47" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M47" t="n">
-        <v>115.28</v>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P47" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q47" t="n">
-        <v>5.24</v>
-      </c>
-      <c r="R47" t="inlineStr">
-        <is>
-          <t>CHEMBL1962102</t>
-        </is>
-      </c>
-      <c r="S47" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: FMS mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T47" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>122.74</v>
+      </c>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr"/>
+      <c r="S47" t="inlineStr"/>
+      <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B8A27A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7EE365930&gt;</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
@@ -3858,7 +3676,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>C38338242</t>
+          <t>C28103574</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -3866,12 +3684,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>N/C(N/N=C/c1ccc(Cl)cc1)=[NH+]\N=C\c1ccc(Cl)cc1</t>
+          <t>C[C@H](C(=O)NC[C@H]1COc2ccccc2O1)[NH+]1CCN(c2nccs2)CC1</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>N/C(N/N=C/c1ccc(Cl)cc1)=[NH+]\N=C\c1ccc(Cl)cc1</t>
+          <t>C[C@H](C(=O)NC[C@H]1COc2ccccc2O1)[NH+]1CCN(c2nccs2)CC1</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -3885,25 +3703,25 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>335.22</v>
+        <v>389.5</v>
       </c>
       <c r="H48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L48" t="n">
         <v>2</v>
       </c>
       <c r="M48" t="n">
-        <v>76.73999999999999</v>
+        <v>68.13</v>
       </c>
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr"/>
@@ -3914,7 +3732,7 @@
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000023D1B8A21F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7EE365150&gt;</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
